--- a/Energy_result.xlsx
+++ b/Energy_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0143551463215692</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C2">
-        <v>0.5369822485207101</v>
+        <v>-0.007039193343772787</v>
       </c>
       <c r="D2">
-        <v>-0.008155649922299913</v>
+        <v>-0.004702174957102775</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.007039193343772787</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C3">
-        <v>1.07396449704142</v>
+        <v>0.003719603716280773</v>
       </c>
       <c r="D3">
-        <v>-0.009831548029211341</v>
+        <v>0.002484692008142463</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003719603716280773</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C4">
-        <v>1.61094674556213</v>
+        <v>-0.001551559015299908</v>
       </c>
       <c r="D4">
-        <v>-0.009640583035365696</v>
+        <v>-0.001036440056397144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.001551559015299908</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C5">
-        <v>2.14792899408284</v>
+        <v>0.01357583325469136</v>
       </c>
       <c r="D5">
-        <v>-0.02431192143503044</v>
+        <v>0.009068644663452122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01357583325469136</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C6">
-        <v>2.68491124260355</v>
+        <v>-0.007038864013378721</v>
       </c>
       <c r="D6">
-        <v>-0.03584300542378512</v>
+        <v>-0.004701954964689446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.007038864013378721</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C7">
-        <v>3.22189349112426</v>
+        <v>-0.009647328007432954</v>
       </c>
       <c r="D7">
-        <v>-0.03024945768998189</v>
+        <v>-0.006444406616510703</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.009647328007432954</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C8">
-        <v>3.75887573964497</v>
+        <v>0.008530315797095511</v>
       </c>
       <c r="D8">
-        <v>-0.03068564918993556</v>
+        <v>0.005698243443300913</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.008530315797095511</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C9">
-        <v>4.29585798816568</v>
+        <v>0.01680542492661363</v>
       </c>
       <c r="D9">
-        <v>-0.03486499354823917</v>
+        <v>0.01122600905731622</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01680542492661363</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C10">
-        <v>4.83284023668639</v>
+        <v>0.004883649512890997</v>
       </c>
       <c r="D10">
-        <v>-0.03526169516895757</v>
+        <v>0.003262273575579237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004883649512890997</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C11">
-        <v>5.369822485207099</v>
+        <v>-0.01296900057045303</v>
       </c>
       <c r="D11">
-        <v>-0.03484434351296903</v>
+        <v>-0.008663280964570169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01296900057045303</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C12">
-        <v>5.906804733727809</v>
+        <v>0.004201306773765623</v>
       </c>
       <c r="D12">
-        <v>-0.03433607917005073</v>
+        <v>0.002806469226503552</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004201306773765623</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C13">
-        <v>6.443786982248519</v>
+        <v>0.0003409580955420211</v>
       </c>
       <c r="D13">
-        <v>-0.04414515394915929</v>
+        <v>0.0002277597076797805</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0003409580955420211</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C14">
-        <v>6.980769230769229</v>
+        <v>0.001843170774648684</v>
       </c>
       <c r="D14">
-        <v>-0.03747054794791312</v>
+        <v>0.001231236454938965</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.001843170774648684</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C15">
-        <v>7.517751479289939</v>
+        <v>-0.005700766171591098</v>
       </c>
       <c r="D15">
-        <v>-0.03464880746776259</v>
+        <v>-0.003808106784290592</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.005700766171591098</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C16">
-        <v>8.248707719160279</v>
+        <v>0.006381079141783985</v>
       </c>
       <c r="D16">
-        <v>-0.03234616929341778</v>
+        <v>0.004514700083917385</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.006381079141783985</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C17">
-        <v>8.979663959030619</v>
+        <v>-0.0008604733133852349</v>
       </c>
       <c r="D17">
-        <v>-0.03882067680603166</v>
+        <v>-0.0006087965458242079</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0008604733133852349</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C18">
-        <v>9.710620198900958</v>
+        <v>-0.005279069657182944</v>
       </c>
       <c r="D18">
-        <v>-0.03840090153597765</v>
+        <v>-0.003735013419317403</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.005279069657182944</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C19">
-        <v>10.4415764387713</v>
+        <v>0.02032023381947834</v>
       </c>
       <c r="D19">
-        <v>-0.03183996641769671</v>
+        <v>0.01437684117241205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02032023381947834</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C20">
-        <v>11.17253267864164</v>
+        <v>0.0003549105859761426</v>
       </c>
       <c r="D20">
-        <v>-0.04162213745655921</v>
+        <v>0.000251104055707056</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0003549105859761426</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C21">
-        <v>11.90348891851198</v>
+        <v>-0.01864452356434576</v>
       </c>
       <c r="D21">
-        <v>-0.06113553592293576</v>
+        <v>-0.01319125342755402</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.01864452356434576</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C22">
-        <v>12.63444515838232</v>
+        <v>-0.002795685606928444</v>
       </c>
       <c r="D22">
-        <v>-0.06019731453417572</v>
+        <v>-0.001977985504294776</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.002795685606928444</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C23">
-        <v>13.36540139825266</v>
+        <v>-0.01221936842979687</v>
       </c>
       <c r="D23">
-        <v>-0.06700119054219365</v>
+        <v>-0.008645368980645204</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.01221936842979687</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C24">
-        <v>14.096357638123</v>
+        <v>-0.002510948436268201</v>
       </c>
       <c r="D24">
-        <v>-0.07117787374811523</v>
+        <v>-0.001776530092175439</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.002510948436268201</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C25">
-        <v>14.82731387799334</v>
+        <v>0.0002861171873762558</v>
       </c>
       <c r="D25">
-        <v>-0.07849296876181858</v>
+        <v>0.0002024317926727129</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0002861171873762558</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C26">
-        <v>15.55827011786367</v>
+        <v>-0.02198163125829389</v>
       </c>
       <c r="D26">
-        <v>-0.0884929124938775</v>
+        <v>-0.01555230240550117</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.02198163125829389</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C27">
-        <v>16.28922635773402</v>
+        <v>-0.01727668119597148</v>
       </c>
       <c r="D27">
-        <v>-0.08014602683461566</v>
+        <v>-0.01222348639033802</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.01727668119597148</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C28">
-        <v>17.02018259760436</v>
+        <v>0.008380646697709437</v>
       </c>
       <c r="D28">
-        <v>-0.07033515329831543</v>
+        <v>0.005929421263822902</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008380646697709437</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C29">
-        <v>17.7511388374747</v>
+        <v>-0.000653532789496758</v>
       </c>
       <c r="D29">
-        <v>-0.07701180074661912</v>
+        <v>-0.0004623833169947005</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.000653532789496758</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C30">
-        <v>18.48209507734504</v>
+        <v>-0.006261787717183331</v>
       </c>
       <c r="D30">
-        <v>-0.06649540820211439</v>
+        <v>-0.004430299782230384</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.006261787717183331</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C31">
-        <v>19.21305131721538</v>
+        <v>-0.000594366274476954</v>
       </c>
       <c r="D31">
-        <v>-0.06397617086988544</v>
+        <v>-0.0004205222047298668</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.000594366274476954</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C32">
-        <v>19.75003356573609</v>
+        <v>0.000679246911132303</v>
       </c>
       <c r="D32">
-        <v>-0.0619300599201191</v>
+        <v>0.000453736338701542</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.000679246911132303</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C33">
-        <v>20.2870158142568</v>
+        <v>0.0008272088537619737</v>
       </c>
       <c r="D33">
-        <v>-0.06116792185218714</v>
+        <v>0.0005525747861286188</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0008272088537619737</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C34">
-        <v>20.82399806277752</v>
+        <v>-0.01596443586402874</v>
       </c>
       <c r="D34">
-        <v>-0.07005910292541566</v>
+        <v>-0.01066422910382448</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.01596443586402874</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C35">
-        <v>21.36098031129823</v>
+        <v>0.01086303467188365</v>
       </c>
       <c r="D35">
-        <v>-0.06179118016376091</v>
+        <v>0.007256497598188326</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01086303467188365</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C36">
-        <v>21.89796255981894</v>
+        <v>0.00459243057421066</v>
       </c>
       <c r="D36">
-        <v>-0.06634665993467433</v>
+        <v>0.003067739580898137</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.00459243057421066</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C37">
-        <v>22.43494480833965</v>
+        <v>0.003747582751707057</v>
       </c>
       <c r="D37">
-        <v>-0.06078342171906079</v>
+        <v>0.002503381979177532</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.003747582751707057</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C38">
-        <v>22.97192705686036</v>
+        <v>-0.01053737098186236</v>
       </c>
       <c r="D38">
-        <v>-0.05251174666045803</v>
+        <v>-0.007038954539932866</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.01053737098186236</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C39">
-        <v>23.50890930538107</v>
+        <v>0.000683191384202253</v>
       </c>
       <c r="D39">
-        <v>-0.05400090865516029</v>
+        <v>0.0004563712432399851</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.000683191384202253</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C40">
-        <v>24.04589155390179</v>
+        <v>0.01067803337853324</v>
       </c>
       <c r="D40">
-        <v>-0.03941400558426901</v>
+        <v>0.007132916897085192</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01067803337853324</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C41">
-        <v>24.5828738024225</v>
+        <v>-0.01592064956967043</v>
       </c>
       <c r="D41">
-        <v>-0.033959470339144</v>
+        <v>-0.01063497989773781</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.01592064956967043</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C42">
-        <v>25.11985605094321</v>
+        <v>-0.0317583875463141</v>
       </c>
       <c r="D42">
-        <v>-0.04017233405070295</v>
+        <v>-0.02121457492432006</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.0317583875463141</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C43">
-        <v>25.65683829946392</v>
+        <v>0.001526971251052167</v>
       </c>
       <c r="D43">
-        <v>-0.04570696135605251</v>
+        <v>0.001020015451524037</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001526971251052167</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C44">
-        <v>26.19382054798463</v>
+        <v>-0.01107342380426601</v>
       </c>
       <c r="D44">
-        <v>-0.03553570647085486</v>
+        <v>-0.007397037353416116</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.01107342380426601</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C45">
-        <v>26.92477678785497</v>
+        <v>-0.006257800591483509</v>
       </c>
       <c r="D45">
-        <v>-0.04085986639654159</v>
+        <v>-0.004427478836692551</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.006257800591483509</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C46">
-        <v>27.46175903637569</v>
+        <v>-0.01190544142188266</v>
       </c>
       <c r="D46">
-        <v>-0.03295319576216878</v>
+        <v>-0.007952824389566543</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.01190544142188266</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C47">
-        <v>27.9987412848964</v>
+        <v>-0.01627507832791331</v>
       </c>
       <c r="D47">
-        <v>-0.03230205216515788</v>
+        <v>-0.01087173799624366</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01627507832791331</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C48">
-        <v>28.53572353341711</v>
+        <v>0.01358469822816222</v>
       </c>
       <c r="D48">
-        <v>-0.04400575118701294</v>
+        <v>0.009074566457926899</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01358469822816222</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C49">
-        <v>29.07270578193782</v>
+        <v>0.01596736337191995</v>
       </c>
       <c r="D49">
-        <v>-0.04000056156875604</v>
+        <v>0.01066618467651876</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01596736337191995</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C50">
-        <v>29.60968803045853</v>
+        <v>-0.01086635716165496</v>
       </c>
       <c r="D50">
-        <v>-0.03927102131043186</v>
+        <v>-0.007258717018430802</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.01086635716165496</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C51">
-        <v>30.14667027897924</v>
+        <v>0.0171156075448895</v>
       </c>
       <c r="D51">
-        <v>-0.03861368789597219</v>
+        <v>0.01143321077327358</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0171156075448895</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C52">
-        <v>30.68365252749996</v>
+        <v>0.004100101561290259</v>
       </c>
       <c r="D52">
-        <v>-0.03804261937831471</v>
+        <v>0.002738864233660031</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.004100101561290259</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C53">
-        <v>31.22063477602067</v>
+        <v>0.003330080335181229</v>
       </c>
       <c r="D53">
-        <v>-0.02874614639891502</v>
+        <v>0.002224490732461834</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.003330080335181229</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C54">
-        <v>31.75761702454138</v>
+        <v>0.001240392654661804</v>
       </c>
       <c r="D54">
-        <v>-0.02752289834653464</v>
+        <v>0.0008285812014077887</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001240392654661804</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C55">
-        <v>32.29459927306209</v>
+        <v>-0.01447054826224115</v>
       </c>
       <c r="D55">
-        <v>-0.0250551157213769</v>
+        <v>-0.009666313500885948</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.01447054826224115</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C56">
-        <v>33.02555551293243</v>
+        <v>0.01238758349564772</v>
       </c>
       <c r="D56">
-        <v>-0.03127001779089282</v>
+        <v>0.008764383422409469</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01238758349564772</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C57">
-        <v>33.56253776145314</v>
+        <v>-0.007414120727014861</v>
       </c>
       <c r="D57">
-        <v>-0.03882796462400268</v>
+        <v>-0.004952626119063339</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.007414120727014861</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C58">
-        <v>34.09952000997384</v>
+        <v>0.009054264718078464</v>
       </c>
       <c r="D58">
-        <v>-0.04653028816044554</v>
+        <v>0.006048240861290088</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.009054264718078464</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C59">
-        <v>34.63650225849455</v>
+        <v>0.01346229169772428</v>
       </c>
       <c r="D59">
-        <v>-0.0465881036347912</v>
+        <v>0.008992799003347707</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01346229169772428</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C60">
-        <v>35.36745849836489</v>
+        <v>-0.002231167256844024</v>
       </c>
       <c r="D60">
-        <v>-0.04332935620492932</v>
+        <v>-0.001578581111108312</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002231167256844024</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C61">
-        <v>36.09841473823523</v>
+        <v>0.02185512430904968</v>
       </c>
       <c r="D61">
-        <v>-0.04037279116917328</v>
+        <v>0.01546279702221434</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.02185512430904968</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C62">
-        <v>36.82937097810557</v>
+        <v>0.008172368408218667</v>
       </c>
       <c r="D62">
-        <v>-0.03858512286250813</v>
+        <v>0.005782061547676322</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.008172368408218667</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C63">
-        <v>37.5603272179759</v>
+        <v>-0.009308549461898075</v>
       </c>
       <c r="D63">
-        <v>-0.03589122880835134</v>
+        <v>-0.006585925061106698</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.009308549461898075</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C64">
-        <v>38.29128345784624</v>
+        <v>-0.008292367966991954</v>
       </c>
       <c r="D64">
-        <v>-0.0436746637412064</v>
+        <v>-0.005866962863899826</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.008292367966991954</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C65">
-        <v>39.02223969771658</v>
+        <v>0.01523928957467469</v>
       </c>
       <c r="D65">
-        <v>-0.04700741566620653</v>
+        <v>0.01078200417091053</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01523928957467469</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C66">
-        <v>39.75319593758692</v>
+        <v>-0.007977030933272289</v>
       </c>
       <c r="D66">
-        <v>-0.0492385316935766</v>
+        <v>-0.005643857633426471</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.007977030933272289</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C67">
-        <v>40.48415217745725</v>
+        <v>0.01184633014596237</v>
       </c>
       <c r="D67">
-        <v>-0.04197861919565742</v>
+        <v>0.008381439332710893</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01184633014596237</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C68">
-        <v>41.21510841732759</v>
+        <v>0.0009755891422980056</v>
       </c>
       <c r="D68">
-        <v>-0.04554819057186842</v>
+        <v>0.0006902425568992886</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0009755891422980056</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C69">
-        <v>41.94606465719793</v>
+        <v>-0.01753530518131541</v>
       </c>
       <c r="D69">
-        <v>-0.06093552668586191</v>
+        <v>-0.01240646636949071</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.01753530518131541</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C70">
-        <v>42.67702089706827</v>
+        <v>0.006000856834580404</v>
       </c>
       <c r="D70">
-        <v>-0.06997576968270246</v>
+        <v>0.004245687641962409</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.006000856834580404</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C71">
-        <v>43.40797713693861</v>
+        <v>0.001093048535158125</v>
       </c>
       <c r="D71">
-        <v>-0.09006541066236398</v>
+        <v>0.0007733466712692306</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.001093048535158125</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C72">
-        <v>44.13893337680894</v>
+        <v>0.0009848631622277892</v>
       </c>
       <c r="D72">
-        <v>-0.09049751815046725</v>
+        <v>0.0006968040518478593</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0009848631622277892</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C73">
-        <v>44.86988961667928</v>
+        <v>0.0008556150254603878</v>
       </c>
       <c r="D73">
-        <v>-0.09556473695926866</v>
+        <v>0.000605359241190517</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0008556150254603878</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C74">
-        <v>45.60084585654962</v>
+        <v>0.01392862978612275</v>
       </c>
       <c r="D74">
-        <v>-0.07653480148705624</v>
+        <v>0.009854694584885203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01392862978612275</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C75">
-        <v>46.33180209641996</v>
+        <v>0.001832756282512449</v>
       </c>
       <c r="D75">
-        <v>-0.08494775162291929</v>
+        <v>0.001296699940340463</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001832756282512449</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C76">
-        <v>47.06275833629029</v>
+        <v>0.003697405527302244</v>
       </c>
       <c r="D76">
-        <v>-0.09446124079955805</v>
+        <v>0.002615964584278954</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003697405527302244</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C77">
-        <v>47.79371457616063</v>
+        <v>-0.009311603473179275</v>
       </c>
       <c r="D77">
-        <v>-0.0877245532368289</v>
+        <v>-0.006588085815531014</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.009311603473179275</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C78">
-        <v>48.52467081603097</v>
+        <v>-0.01132384761563454</v>
       </c>
       <c r="D78">
-        <v>-0.1157942593712614</v>
+        <v>-0.008011775852427377</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.01132384761563454</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C79">
-        <v>49.25562705590131</v>
+        <v>-0.01154016294887139</v>
       </c>
       <c r="D79">
-        <v>-0.1192504455694516</v>
+        <v>-0.008164821886086818</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.01154016294887139</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C80">
-        <v>49.98658329577164</v>
+        <v>-8.66232107439302e-05</v>
       </c>
       <c r="D80">
-        <v>-0.1113835545647333</v>
+        <v>-6.128709707641704e-05</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-8.66232107439302e-05</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C81">
-        <v>50.71753953564198</v>
+        <v>0.004882484638809359</v>
       </c>
       <c r="D81">
-        <v>-0.09723120652618976</v>
+        <v>0.003454424137168015</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004882484638809359</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C82">
-        <v>51.44849577551232</v>
+        <v>0.004429733718679607</v>
       </c>
       <c r="D82">
-        <v>-0.1036870322125744</v>
+        <v>0.003134096717356073</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004429733718679607</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C83">
-        <v>52.17945201538266</v>
+        <v>0.002678410412110033</v>
       </c>
       <c r="D83">
-        <v>-0.09868302094055219</v>
+        <v>0.001895011712538906</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.002678410412110033</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C84">
-        <v>52.910408255253</v>
+        <v>0.004036181576231535</v>
       </c>
       <c r="D84">
-        <v>-0.1019101572732895</v>
+        <v>0.002855653236080045</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.004036181576231535</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C85">
-        <v>53.64136449512333</v>
+        <v>-0.01166168974882709</v>
       </c>
       <c r="D85">
-        <v>-0.1248178416606826</v>
+        <v>-0.008250803746171506</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.01166168974882709</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C86">
-        <v>54.37232073499367</v>
+        <v>-0.004993363379335314</v>
       </c>
       <c r="D86">
-        <v>-0.1218179771938868</v>
+        <v>-0.003532872350712226</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.004993363379335314</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C87">
-        <v>55.10327697486401</v>
+        <v>-0.003342814981981412</v>
       </c>
       <c r="D87">
-        <v>-0.125989011117684</v>
+        <v>-0.002365086961678475</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.003342814981981412</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C88">
-        <v>55.83423321473435</v>
+        <v>0.01087731160917027</v>
       </c>
       <c r="D88">
-        <v>-0.1166927530332478</v>
+        <v>0.007695845568370007</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01087731160917027</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C89">
-        <v>56.56518945460468</v>
+        <v>-0.005348182940407398</v>
       </c>
       <c r="D89">
-        <v>-0.1070809305227585</v>
+        <v>-0.003783912005064454</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.005348182940407398</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C90">
-        <v>57.29614569447502</v>
+        <v>-0.02305438940137616</v>
       </c>
       <c r="D90">
-        <v>-0.1065272580658678</v>
+        <v>-0.01631129334903656</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02305438940137616</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C91">
-        <v>58.02710193434536</v>
+        <v>-0.01354472800153417</v>
       </c>
       <c r="D91">
-        <v>-0.1102218129745909</v>
+        <v>-0.009583078862749913</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01354472800153417</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C92">
-        <v>58.7580581742157</v>
+        <v>-0.03009971333879946</v>
       </c>
       <c r="D92">
-        <v>-0.1009999668056687</v>
+        <v>-0.02129595563965619</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.03009971333879946</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C93">
-        <v>59.48901441408604</v>
+        <v>-0.0006474138356491466</v>
       </c>
       <c r="D93">
-        <v>-0.09256934298787356</v>
+        <v>-0.0004580540741134448</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.0006474138356491466</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C94">
-        <v>60.21997065395637</v>
+        <v>-0.007592063677210881</v>
       </c>
       <c r="D94">
-        <v>-0.08912500112323037</v>
+        <v>-0.00537148807576573</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.007592063677210881</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C95">
-        <v>60.95092689382671</v>
+        <v>0.02851198800164401</v>
       </c>
       <c r="D95">
-        <v>-0.07686747624958429</v>
+        <v>0.02017261841822041</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.02851198800164401</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C96">
-        <v>61.68188313369705</v>
+        <v>-0.01260487370976193</v>
       </c>
       <c r="D96">
-        <v>-0.06828630268538585</v>
+        <v>-0.008918119197518752</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.01260487370976193</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C97">
-        <v>62.41283937356739</v>
+        <v>-0.01425377871901734</v>
       </c>
       <c r="D97">
-        <v>-0.0681369980990995</v>
+        <v>-0.01008474186717208</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01425377871901734</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C98">
-        <v>63.14379561343772</v>
+        <v>0.01009337920456055</v>
       </c>
       <c r="D98">
-        <v>-0.07237527358802989</v>
+        <v>0.007141202754162942</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01009337920456055</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C99">
-        <v>63.87475185330806</v>
+        <v>-0.04205600831822309</v>
       </c>
       <c r="D99">
-        <v>-0.06704808527348302</v>
+        <v>-0.02975519658426133</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.04205600831822309</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C100">
-        <v>64.60570809317841</v>
+        <v>-0.005178301290518661</v>
       </c>
       <c r="D100">
-        <v>-0.04543274462847978</v>
+        <v>-0.003663718432477878</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.005178301290518661</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C101">
-        <v>65.33666433304874</v>
+        <v>0.01178672950648174</v>
       </c>
       <c r="D101">
-        <v>-0.05562525149335143</v>
+        <v>0.008339271071498967</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01178672950648174</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C102">
-        <v>66.06762057291908</v>
+        <v>0.0212040433904388</v>
       </c>
       <c r="D102">
-        <v>-0.05841486586177028</v>
+        <v>0.01500214843714324</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0212040433904388</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C103">
-        <v>66.79857681278942</v>
+        <v>-0.009672572183951011</v>
       </c>
       <c r="D103">
-        <v>-0.0609946036073494</v>
+        <v>-0.006843476076739574</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.009672572183951011</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C104">
-        <v>67.52953305265976</v>
+        <v>0.007497361699219773</v>
       </c>
       <c r="D104">
-        <v>-0.06046309946674332</v>
+        <v>0.00530448514123324</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.007497361699219773</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C105">
-        <v>68.2604892925301</v>
+        <v>-0.004835122669387459</v>
       </c>
       <c r="D105">
-        <v>-0.05982834453922763</v>
+        <v>-0.003420914901101125</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.004835122669387459</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C106">
-        <v>68.99144553240043</v>
+        <v>-0.03432190420994985</v>
       </c>
       <c r="D106">
-        <v>-0.06908408854730975</v>
+        <v>-0.02428321297603342</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.03432190420994985</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C107">
-        <v>69.72240177227077</v>
+        <v>0.004494607972199027</v>
       </c>
       <c r="D107">
-        <v>-0.06779574445650076</v>
+        <v>0.003179996132063272</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.004494607972199027</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C108">
-        <v>70.45335801214111</v>
+        <v>-0.006249336439601016</v>
       </c>
       <c r="D108">
-        <v>-0.07535297286733199</v>
+        <v>-0.004421490334377331</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.006249336439601016</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C109">
-        <v>71.18431425201145</v>
+        <v>0.01392830781537135</v>
       </c>
       <c r="D109">
-        <v>-0.07535297286733199</v>
+        <v>0.009854466786209456</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.01392830781537135</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C110">
-        <v>71.91527049188178</v>
+        <v>0.01440110863713517</v>
       </c>
       <c r="D110">
-        <v>-0.07961427841382622</v>
+        <v>0.01018897978350423</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01440110863713517</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C111">
-        <v>72.64622673175212</v>
+        <v>0.0008295510234788139</v>
       </c>
       <c r="D111">
-        <v>-0.09272699195217207</v>
+        <v>0.0005869186061006132</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0008295510234788139</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C112">
-        <v>73.37718297162246</v>
+        <v>-0.005535442060891071</v>
       </c>
       <c r="D112">
-        <v>-0.1076127904231058</v>
+        <v>-0.003916400373908847</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.005535442060891071</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C113">
-        <v>74.1081392114928</v>
+        <v>0.01381681864897821</v>
       </c>
       <c r="D113">
-        <v>-0.1005751929507942</v>
+        <v>0.009775586688080744</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01381681864897821</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C114">
-        <v>74.83909545136314</v>
+        <v>0.01263135366330292</v>
       </c>
       <c r="D114">
-        <v>-0.09710903487293987</v>
+        <v>0.008936854123981397</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01263135366330292</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C115">
-        <v>75.57005169123347</v>
+        <v>0.005160555276798817</v>
       </c>
       <c r="D115">
-        <v>-0.1027900415316087</v>
+        <v>0.003651162886958068</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.005160555276798817</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C116">
-        <v>76.30100793110381</v>
+        <v>0.01836508603182452</v>
       </c>
       <c r="D116">
-        <v>-0.1138500291645483</v>
+        <v>0.012993547581334</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.01836508603182452</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C117">
-        <v>77.03196417097415</v>
+        <v>0.01285691788391574</v>
       </c>
       <c r="D117">
-        <v>-0.1073287416115458</v>
+        <v>0.009096443870966536</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.01285691788391574</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C118">
-        <v>77.76292041084449</v>
+        <v>0.0002236986341337399</v>
       </c>
       <c r="D118">
-        <v>-0.1001584549339812</v>
+        <v>0.0001582698192352225</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0002236986341337399</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C119">
-        <v>78.49387665071482</v>
+        <v>-0.006350082482649455</v>
       </c>
       <c r="D119">
-        <v>-0.09230147914991217</v>
+        <v>-0.004492769526955715</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.006350082482649455</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C120">
-        <v>79.22483289058516</v>
+        <v>0.007981568278497164</v>
       </c>
       <c r="D120">
-        <v>-0.09295974097062723</v>
+        <v>0.005647067866744747</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.007981568278497164</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C121">
-        <v>79.9557891304555</v>
+        <v>0.0323856239040694</v>
       </c>
       <c r="D121">
-        <v>-0.09075102489012173</v>
+        <v>0.02291326838434135</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0323856239040694</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C122">
-        <v>80.68674537032584</v>
+        <v>-0.01527113078561104</v>
       </c>
       <c r="D122">
-        <v>-0.09922526126045984</v>
+        <v>-0.01080453225973255</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.01527113078561104</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C123">
-        <v>81.41770161019618</v>
+        <v>-0.004179596484586767</v>
       </c>
       <c r="D123">
-        <v>-0.09901217678320264</v>
+        <v>-0.00295712122987856</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.004179596484586767</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C124">
-        <v>82.14865785006651</v>
+        <v>-0.003865144564296763</v>
       </c>
       <c r="D124">
-        <v>-0.1020830436305128</v>
+        <v>-0.002734642229167661</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.003865144564296763</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C125">
-        <v>82.87961408993685</v>
+        <v>0.0007963368925718584</v>
       </c>
       <c r="D125">
-        <v>-0.09076597455025184</v>
+        <v>0.000563419157768908</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0007963368925718584</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C126">
-        <v>83.12182032494884</v>
+        <v>0.001127059488814197</v>
       </c>
       <c r="D126">
-        <v>-0.0827737251059309</v>
+        <v>0.0006810048933356848</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001127059488814197</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C127">
-        <v>83.36402655996083</v>
+        <v>-0.01643433340670875</v>
       </c>
       <c r="D127">
-        <v>-0.07817670257105495</v>
+        <v>-0.009930142623131598</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.01643433340670875</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C128">
-        <v>83.60623279497283</v>
+        <v>0.002287560709590686</v>
       </c>
       <c r="D128">
-        <v>-0.08079532856333535</v>
+        <v>0.001382216335956449</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.002287560709590686</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C129">
-        <v>83.84843902998482</v>
+        <v>-0.01341847951129616</v>
       </c>
       <c r="D129">
-        <v>-0.0760590060483822</v>
+        <v>-0.008107868572165293</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.01341847951129616</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C130">
-        <v>84.09064526499681</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>-0.07989303602776235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C131">
-        <v>84.3328515000088</v>
+        <v>-0.007566297861932192</v>
       </c>
       <c r="D131">
-        <v>-0.0775348673182772</v>
+        <v>-0.004571795827594159</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.007566297861932192</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C132">
-        <v>84.57505773502079</v>
+        <v>-0.02328269947479811</v>
       </c>
       <c r="D132">
-        <v>-0.08960960889411568</v>
+        <v>-0.01406814141557313</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.02328269947479811</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C133">
-        <v>84.81726397003278</v>
+        <v>-0.0264309573474355</v>
       </c>
       <c r="D133">
-        <v>-0.09251174555314982</v>
+        <v>-0.01597041812592174</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.0264309573474355</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C134">
-        <v>85.05947020504478</v>
+        <v>0.01249583211691974</v>
       </c>
       <c r="D134">
-        <v>-0.07729272688364971</v>
+        <v>0.007550375913942933</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.01249583211691974</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C135">
-        <v>85.30167644005677</v>
+        <v>0.006154448247712274</v>
       </c>
       <c r="D135">
-        <v>-0.05825960766393962</v>
+        <v>0.003718711757515966</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.006154448247712274</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C136">
-        <v>85.83865868857748</v>
+        <v>-0.009245934860095062</v>
       </c>
       <c r="D136">
-        <v>-0.05547379863682923</v>
+        <v>-0.006176276347431705</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.009245934860095062</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C137">
-        <v>86.3756409370982</v>
+        <v>-0.01800031778726652</v>
       </c>
       <c r="D137">
-        <v>-0.06971126229334228</v>
+        <v>-0.01202419643637911</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01800031778726652</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C138">
-        <v>86.91262318561891</v>
+        <v>0.01061350629241087</v>
       </c>
       <c r="D138">
-        <v>-0.06008742585936342</v>
+        <v>0.007089812860358053</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.01061350629241087</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C139">
-        <v>87.1548294206309</v>
+        <v>0.01273143269497101</v>
       </c>
       <c r="D139">
-        <v>-0.06552582019463987</v>
+        <v>0.00769273321461607</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01273143269497101</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C140">
-        <v>87.3970356556429</v>
+        <v>0.01395070558250922</v>
       </c>
       <c r="D140">
-        <v>-0.06866531235289669</v>
+        <v>0.008429456352095402</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01395070558250922</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C141">
-        <v>87.63924189065489</v>
+        <v>-0.001168797907665997</v>
       </c>
       <c r="D141">
-        <v>-0.07258831302684837</v>
+        <v>-0.0007062245625370644</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.001168797907665997</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C142">
-        <v>87.88144812566688</v>
+        <v>0.00392175674220141</v>
       </c>
       <c r="D142">
-        <v>-0.07574484473686721</v>
+        <v>0.002369649125372531</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.00392175674220141</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C143">
-        <v>88.12365436067887</v>
+        <v>-0.0150467024321097</v>
       </c>
       <c r="D143">
-        <v>-0.07755387833541866</v>
+        <v>-0.009091692219027066</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.0150467024321097</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C144">
-        <v>88.36586059569086</v>
+        <v>0.0003783489841531207</v>
       </c>
       <c r="D144">
-        <v>-0.07345265133699441</v>
+        <v>0.0002286103902713667</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0003783489841531207</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C145">
-        <v>88.60806683070285</v>
+        <v>-0.005452576213455629</v>
       </c>
       <c r="D145">
-        <v>-0.0816826643262093</v>
+        <v>-0.003294618535669142</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.005452576213455629</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C146">
-        <v>89.14504907922357</v>
+        <v>0.01841872221072283</v>
       </c>
       <c r="D146">
-        <v>-0.090798835495095</v>
+        <v>0.01230369022293034</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01841872221072283</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C147">
-        <v>89.68203132774428</v>
+        <v>0.01300752176290132</v>
       </c>
       <c r="D147">
-        <v>-0.08446015124623749</v>
+        <v>0.008689013087215777</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.01300752176290132</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C148">
-        <v>90.219013576265</v>
+        <v>0.007481732281195974</v>
       </c>
       <c r="D148">
-        <v>-0.07449984951403521</v>
+        <v>0.00499779057773849</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.007481732281195974</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C149">
-        <v>90.75599582478571</v>
+        <v>-0.00426185829418646</v>
       </c>
       <c r="D149">
-        <v>-0.07664168404628871</v>
+        <v>-0.002846917588841723</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.00426185829418646</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C150">
-        <v>91.29297807330643</v>
+        <v>0.007708445365547156</v>
       </c>
       <c r="D150">
-        <v>-0.07564683230875167</v>
+        <v>0.005149234718511628</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.007708445365547156</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C151">
-        <v>91.82996032182714</v>
+        <v>-0.006239948933505879</v>
       </c>
       <c r="D151">
-        <v>-0.08189478399931305</v>
+        <v>-0.004168280394612017</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.006239948933505879</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C152">
-        <v>92.07216655683914</v>
+        <v>0.004187122155399514</v>
       </c>
       <c r="D152">
-        <v>-0.07980856452682503</v>
+        <v>0.002529991278296587</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.004187122155399514</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C153">
-        <v>92.31437279185113</v>
+        <v>-0.02143969503520182</v>
       </c>
       <c r="D153">
-        <v>-0.08659728484454196</v>
+        <v>-0.01295454000033198</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.02143969503520182</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C154">
-        <v>92.85135504037184</v>
+        <v>-0.004723276721314562</v>
       </c>
       <c r="D154">
-        <v>-0.08641164092726311</v>
+        <v>-0.003155144691980878</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.004723276721314562</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C155">
-        <v>93.38833728889256</v>
+        <v>0.02476921146326205</v>
       </c>
       <c r="D155">
-        <v>-0.0968251989254722</v>
+        <v>0.016545811453349</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.02476921146326205</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C156">
-        <v>93.92531953741327</v>
+        <v>0.03097672491218262</v>
       </c>
       <c r="D156">
-        <v>-0.08642710928165132</v>
+        <v>0.02069242497281069</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.03097672491218262</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C157">
-        <v>94.46230178593399</v>
+        <v>0.004533951523894686</v>
       </c>
       <c r="D157">
-        <v>-0.0894820781147426</v>
+        <v>0.003028675626765639</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.004533951523894686</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C158">
-        <v>94.9992840344547</v>
+        <v>-0.02317171400252072</v>
       </c>
       <c r="D158">
-        <v>-0.07733826388724822</v>
+        <v>-0.01547868455583617</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.02317171400252072</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C159">
-        <v>95.53626628297542</v>
+        <v>0.01566295731003908</v>
       </c>
       <c r="D159">
-        <v>-0.07885548701554454</v>
+        <v>0.01046284169514821</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.01566295731003908</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C160">
-        <v>96.26722252284576</v>
+        <v>-0.008148184961637384</v>
       </c>
       <c r="D160">
-        <v>-0.07792785000070618</v>
+        <v>-0.00576495143105122</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.008148184961637384</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C161">
-        <v>96.50942875785775</v>
+        <v>-0.00557442608735581</v>
       </c>
       <c r="D161">
-        <v>-0.07888361910243472</v>
+        <v>-0.003368244072920655</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.00557442608735581</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C162">
-        <v>97.24038499772809</v>
+        <v>-0.005877715576570353</v>
       </c>
       <c r="D162">
-        <v>-0.06691788418508635</v>
+        <v>-0.004158563530896105</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.005877715576570353</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C163">
-        <v>97.7773672462488</v>
+        <v>-0.005137308989089817</v>
       </c>
       <c r="D163">
-        <v>-0.07253044823841162</v>
+        <v>-0.003431717882385935</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.005137308989089817</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C164">
-        <v>98.31434949476952</v>
+        <v>-0.002944232918017597</v>
       </c>
       <c r="D164">
-        <v>-0.06383553041805373</v>
+        <v>-0.001966744997454476</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.002944232918017597</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C165">
-        <v>98.85133174329023</v>
+        <v>0.006674816621809576</v>
       </c>
       <c r="D165">
-        <v>-0.06406891759035466</v>
+        <v>0.004458771627588842</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.006674816621809576</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C166">
-        <v>99.38831399181095</v>
+        <v>-0.01339448597193638</v>
       </c>
       <c r="D166">
-        <v>-0.06220429771207912</v>
+        <v>-0.008947504838210144</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.01339448597193638</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C167">
-        <v>99.92529624033166</v>
+        <v>-0.01483672346561615</v>
       </c>
       <c r="D167">
-        <v>-0.06258772774236622</v>
+        <v>-0.009910918214399775</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.01483672346561615</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C168">
-        <v>100.4622784888524</v>
+        <v>0.01031631631239449</v>
       </c>
       <c r="D168">
-        <v>-0.05722778046451221</v>
+        <v>0.006891290215320731</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.01031631631239449</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C169">
-        <v>100.9992607373731</v>
+        <v>0.01621056029960943</v>
       </c>
       <c r="D169">
-        <v>-0.05074408073358423</v>
+        <v>0.0108286400101313</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.01621056029960943</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C170">
-        <v>101.5362429858938</v>
+        <v>-0.003485872092070075</v>
       </c>
       <c r="D170">
-        <v>-0.05103975902116911</v>
+        <v>-0.002328559488921526</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.003485872092070075</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C171">
-        <v>102.0732252344145</v>
+        <v>0.001619138105864337</v>
       </c>
       <c r="D171">
-        <v>-0.05097254691507513</v>
+        <v>0.001081582829404928</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001619138105864337</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C172">
-        <v>102.6102074829352</v>
+        <v>-0.0101686475321765</v>
       </c>
       <c r="D172">
-        <v>-0.05386932721191039</v>
+        <v>-0.006792647600126589</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.0101686475321765</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C173">
-        <v>103.3411637228056</v>
+        <v>0.003125720770584373</v>
       </c>
       <c r="D173">
-        <v>-0.05599331164254615</v>
+        <v>0.00221148986115134</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.003125720770584373</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C174">
-        <v>104.0721199626759</v>
+        <v>-0.01017133833837214</v>
       </c>
       <c r="D174">
-        <v>-0.05184687829345862</v>
+        <v>-0.007196359899238392</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.01017133833837214</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C175">
-        <v>104.8030762025463</v>
+        <v>0.0002781447761481814</v>
       </c>
       <c r="D175">
-        <v>-0.04664614984069716</v>
+        <v>0.0001967912035434032</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0002781447761481814</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C176">
-        <v>105.5340324424166</v>
+        <v>-0.01560232514360926</v>
       </c>
       <c r="D176">
-        <v>-0.04874526878494518</v>
+        <v>-0.01103885676231653</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.01560232514360926</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C177">
-        <v>106.2649886822869</v>
+        <v>0.01557914936693017</v>
       </c>
       <c r="D177">
-        <v>-0.04398245767453057</v>
+        <v>0.01102245958582128</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.01557914936693017</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C178">
-        <v>106.8019709308076</v>
+        <v>-0.004972013681286747</v>
       </c>
       <c r="D178">
-        <v>-0.04524627171105039</v>
+        <v>-0.003321300762281429</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.004972013681286747</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C179">
-        <v>107.3389531793284</v>
+        <v>0.01976426398465403</v>
       </c>
       <c r="D179">
-        <v>-0.05603396890705515</v>
+        <v>0.01320251094344828</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01976426398465403</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C180">
-        <v>107.8759354278491</v>
+        <v>-0.002469306419673245</v>
       </c>
       <c r="D180">
-        <v>-0.05140283149572592</v>
+        <v>-0.001649494514633897</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.002469306419673245</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C181">
-        <v>108.4129176763698</v>
+        <v>0.001509745002660878</v>
       </c>
       <c r="D181">
-        <v>-0.05534316102605838</v>
+        <v>0.001008508332762765</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.001509745002660878</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C182">
-        <v>108.9498999248905</v>
+        <v>-0.0015555304520527</v>
       </c>
       <c r="D182">
-        <v>-0.05482894590184455</v>
+        <v>-0.00103909297265199</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.0015555304520527</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C183">
-        <v>109.4868821734112</v>
+        <v>0.01947443688173589</v>
       </c>
       <c r="D183">
-        <v>-0.05481541973461046</v>
+        <v>0.01300890669383111</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.01947443688173589</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C184">
-        <v>110.0238644219319</v>
+        <v>-0.009134543357024683</v>
       </c>
       <c r="D184">
-        <v>-0.05895476717233234</v>
+        <v>-0.006101866921437611</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.009134543357024683</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C185">
-        <v>110.5608466704526</v>
+        <v>0.01415112648358452</v>
       </c>
       <c r="D185">
-        <v>-0.05823346592747648</v>
+        <v>0.00945294003392739</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.01415112648358452</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C186">
-        <v>111.0978289189734</v>
+        <v>-0.0003798415882831918</v>
       </c>
       <c r="D186">
-        <v>-0.06228644114932239</v>
+        <v>-0.0002537338466021</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.0003798415882831918</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C187">
-        <v>111.6348111674941</v>
+        <v>0.003034700532706935</v>
       </c>
       <c r="D187">
-        <v>-0.0739660560845751</v>
+        <v>0.002027177284429141</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.003034700532706935</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C188">
-        <v>112.1717934160148</v>
+        <v>-0.0006240388889580117</v>
       </c>
       <c r="D188">
-        <v>-0.07947469065983452</v>
+        <v>-0.0004168574284882319</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.0006240388889580117</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C189">
-        <v>112.7087756645355</v>
+        <v>0.008723405262861306</v>
       </c>
       <c r="D189">
-        <v>-0.08170335241748923</v>
+        <v>0.005827227036457575</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.008723405262861306</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C190">
-        <v>113.2457579130562</v>
+        <v>0.01055233147334889</v>
       </c>
       <c r="D190">
-        <v>-0.08895279532413831</v>
+        <v>0.007048948135076282</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.01055233147334889</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C191">
-        <v>113.7827401615769</v>
+        <v>-0.0004812214367646561</v>
       </c>
       <c r="D191">
-        <v>-0.1061201633796265</v>
+        <v>-0.0003214554961439658</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.0004812214367646561</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C192">
-        <v>114.3197224100977</v>
+        <v>0.0001093888446348501</v>
       </c>
       <c r="D192">
-        <v>-0.1035962790374487</v>
+        <v>7.307165192208155e-05</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0001093888446348501</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C193">
-        <v>114.8567046586184</v>
+        <v>-0.004714559150828634</v>
       </c>
       <c r="D193">
-        <v>-0.1101771067769181</v>
+        <v>-0.003149321362570276</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.004714559150828634</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C194">
-        <v>115.3936869071391</v>
+        <v>-0.003456820748405143</v>
       </c>
       <c r="D194">
-        <v>-0.1047688892545896</v>
+        <v>-0.002309153216926983</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.003456820748405143</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C195">
-        <v>115.9306691556598</v>
+        <v>0.006748390725592301</v>
       </c>
       <c r="D195">
-        <v>-0.1246593357223488</v>
+        <v>0.004507919064149093</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.006748390725592301</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C196">
-        <v>116.4676514041805</v>
+        <v>0.008464273919816634</v>
       </c>
       <c r="D196">
-        <v>-0.1329437441870788</v>
+        <v>0.005654127527414683</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.008464273919816634</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C197">
-        <v>117.0046336527012</v>
+        <v>-0.003416351746832191</v>
       </c>
       <c r="D197">
-        <v>-0.1317314965038248</v>
+        <v>-0.002282119959500743</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.003416351746832191</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C198">
-        <v>117.5416159012219</v>
+        <v>0.007751556004714999</v>
       </c>
       <c r="D198">
-        <v>-0.1089202798260036</v>
+        <v>0.005178032587525846</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.007751556004714999</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C199">
-        <v>118.0785981497427</v>
+        <v>-0.002056878817261243</v>
       </c>
       <c r="D199">
-        <v>-0.1153496820193035</v>
+        <v>-0.001373993239278921</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.002056878817261243</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C200">
-        <v>118.6155803982634</v>
+        <v>-0.01755716047480593</v>
       </c>
       <c r="D200">
-        <v>-0.1199793572738065</v>
+        <v>-0.01172816774176276</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.01755716047480593</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C201">
-        <v>119.1525626467841</v>
+        <v>0.007537254822252315</v>
       </c>
       <c r="D201">
-        <v>-0.1249776594069038</v>
+        <v>0.005034879586288141</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.007537254822252315</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C202">
-        <v>119.6895448953048</v>
+        <v>-0.006412953258762677</v>
       </c>
       <c r="D202">
-        <v>-0.1185972920058956</v>
+        <v>-0.004283847131589435</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.006412953258762677</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C203">
-        <v>120.2265271438255</v>
+        <v>0.0008368938514271562</v>
       </c>
       <c r="D203">
-        <v>-0.1103103332109034</v>
+        <v>0.0005590443560433459</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0008368938514271562</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C204">
-        <v>120.7635093923462</v>
+        <v>2.201406698976172e-05</v>
       </c>
       <c r="D204">
-        <v>-0.1130999100042111</v>
+        <v>1.470537737037923e-05</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2.201406698976172e-05</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C205">
-        <v>121.300491640867</v>
+        <v>-0.006736858284451586</v>
       </c>
       <c r="D205">
-        <v>-0.1180723215278832</v>
+        <v>-0.004500215403618998</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.006736858284451586</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C206">
-        <v>121.8374738893877</v>
+        <v>0.001173930031267645</v>
       </c>
       <c r="D206">
-        <v>-0.1231911198602797</v>
+        <v>0.0007841842274869293</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.001173930031267645</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C207">
-        <v>122.3744561379084</v>
+        <v>-0.006596286035606802</v>
       </c>
       <c r="D207">
-        <v>-0.1151258258628134</v>
+        <v>-0.004406313265135146</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.006596286035606802</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C208">
-        <v>122.9114383864291</v>
+        <v>-0.01900877174955529</v>
       </c>
       <c r="D208">
-        <v>-0.1161412942640138</v>
+        <v>-0.01269784279545521</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.01900877174955529</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C209">
-        <v>123.4484206349498</v>
+        <v>-0.008965396365659295</v>
       </c>
       <c r="D209">
-        <v>-0.1239323574112119</v>
+        <v>-0.00598887688010408</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.008965396365659295</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C210">
-        <v>123.9854028834705</v>
+        <v>-0.003627184876648037</v>
       </c>
       <c r="D210">
-        <v>-0.1537517280315275</v>
+        <v>-0.002422956304623255</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.003627184876648037</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C211">
-        <v>124.5223851319912</v>
+        <v>-0.01179859150219009</v>
       </c>
       <c r="D211">
-        <v>-0.1810094665549319</v>
+        <v>-0.007881448737270915</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.01179859150219009</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C212">
-        <v>125.059367380512</v>
+        <v>-0.0279401831923769</v>
       </c>
       <c r="D212">
-        <v>-0.1995232655621394</v>
+        <v>-0.01866401777702034</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.0279401831923769</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C213">
-        <v>125.5963496290327</v>
+        <v>0.004107664648937082</v>
       </c>
       <c r="D213">
-        <v>-0.2340977567284989</v>
+        <v>0.002743916369550392</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.004107664648937082</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C214">
-        <v>126.1333318775534</v>
+        <v>-0.01071040895750297</v>
       </c>
       <c r="D214">
-        <v>-0.2264850728821632</v>
+        <v>-0.007154543755337048</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.01071040895750297</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C215">
-        <v>126.6703141260741</v>
+        <v>0.008801965905878895</v>
       </c>
       <c r="D215">
-        <v>-0.2085939506421514</v>
+        <v>0.00587970547683711</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.008801965905878895</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C216">
-        <v>127.2072963745948</v>
+        <v>-0.0323720395747964</v>
       </c>
       <c r="D216">
-        <v>-0.2280789799205492</v>
+        <v>-0.02162449393915397</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.0323720395747964</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C217">
-        <v>127.7442786231155</v>
+        <v>-0.01348301553254316</v>
       </c>
       <c r="D217">
-        <v>-0.214581823185289</v>
+        <v>-0.009006642506763717</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.01348301553254316</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C218">
-        <v>128.2812608716362</v>
+        <v>0.001972953701183222</v>
       </c>
       <c r="D218">
-        <v>-0.2372021976588725</v>
+        <v>0.001317931335617315</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.001972953701183222</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C219">
-        <v>128.8182431201569</v>
+        <v>0.03712564271700192</v>
       </c>
       <c r="D219">
-        <v>-0.2697381206517034</v>
+        <v>0.02479989665359394</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.03712564271700192</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C220">
-        <v>129.3552253686777</v>
+        <v>-0.01046396130831706</v>
       </c>
       <c r="D220">
-        <v>-0.3959907367478339</v>
+        <v>-0.00698991694262647</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.01046396130831706</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C221">
-        <v>129.8922076171984</v>
+        <v>-0.007534875137174879</v>
       </c>
       <c r="D221">
-        <v>-0.3685386614541436</v>
+        <v>-0.005033289958751229</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.007534875137174879</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C222">
-        <v>130.4291898657191</v>
+        <v>-0.008134821645239931</v>
       </c>
       <c r="D222">
-        <v>-0.4001640548812017</v>
+        <v>-0.005434053698011266</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.008134821645239931</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C223">
-        <v>130.9661721142398</v>
+        <v>0.01038415635073697</v>
       </c>
       <c r="D223">
-        <v>-0.4740553013344119</v>
+        <v>0.006936607301214545</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.01038415635073697</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C224">
-        <v>131.5031543627605</v>
+        <v>0.01348716623837642</v>
       </c>
       <c r="D224">
-        <v>-0.4263416417657216</v>
+        <v>0.009009415174606508</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.01348716623837642</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C225">
-        <v>132.0401366112812</v>
+        <v>-0.004540083627396996</v>
       </c>
       <c r="D225">
-        <v>-0.5163512927044145</v>
+        <v>-0.003032771866507147</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.004540083627396996</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C226">
-        <v>132.5771188598019</v>
+        <v>-0.008092684238506287</v>
       </c>
       <c r="D226">
-        <v>-0.5119155710345402</v>
+        <v>-0.005405905947406365</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.008092684238506287</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C227">
-        <v>133.1141011083226</v>
+        <v>-0.008330931256889329</v>
       </c>
       <c r="D227">
-        <v>-0.6066015526045045</v>
+        <v>-0.005565054745959568</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.008330931256889329</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C228">
-        <v>133.6510833568433</v>
+        <v>0.01312640301420842</v>
       </c>
       <c r="D228">
-        <v>-0.5664861557727978</v>
+        <v>0.008768425658438843</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.01312640301420842</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C229">
-        <v>134.188065605364</v>
+        <v>-0.00165269207626384</v>
       </c>
       <c r="D229">
-        <v>-0.5605966213770678</v>
+        <v>-0.001103996852094543</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.00165269207626384</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C230">
-        <v>134.7250478538847</v>
+        <v>-0.01268008764607931</v>
       </c>
       <c r="D230">
-        <v>-0.6028908070736421</v>
+        <v>-0.008470287385415928</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.01268008764607931</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C231">
-        <v>135.2620301024054</v>
+        <v>-0.04853153233041141</v>
       </c>
       <c r="D231">
-        <v>-0.5100451497738048</v>
+        <v>-0.03241902087485129</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.04853153233041141</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C232">
-        <v>135.7990123509261</v>
+        <v>-0.04436243256929284</v>
       </c>
       <c r="D232">
-        <v>-0.4830421731959761</v>
+        <v>-0.02963406590444443</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.04436243256929284</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C233">
-        <v>136.3359945994468</v>
+        <v>-0.03013152244282757</v>
       </c>
       <c r="D233">
-        <v>-0.4458219800767015</v>
+        <v>-0.02012783046730551</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.03013152244282757</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C234">
-        <v>136.8729768479675</v>
+        <v>-0.05627057181094663</v>
       </c>
       <c r="D234">
-        <v>-0.4899507196641235</v>
+        <v>-0.03758869243524323</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.05627057181094663</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C235">
-        <v>137.4099590964882</v>
+        <v>0.01238977230317317</v>
       </c>
       <c r="D235">
-        <v>-0.4836289040730636</v>
+        <v>0.008276356991916568</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.01238977230317317</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C236">
-        <v>137.9469413450089</v>
+        <v>0.02911810542463034</v>
       </c>
       <c r="D236">
-        <v>-0.4736748760108448</v>
+        <v>0.01945086879125148</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.02911810542463034</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C237">
-        <v>138.4839235935296</v>
+        <v>-0.03171221621087206</v>
       </c>
       <c r="D237">
-        <v>-0.5028505745791285</v>
+        <v>-0.02118373251288897</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.03171221621087206</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C238">
-        <v>139.0209058420503</v>
+        <v>0.02196685191000114</v>
       </c>
       <c r="D238">
-        <v>-0.4494864697082697</v>
+        <v>0.01467383773866216</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.02196685191000114</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C239">
-        <v>139.557888090571</v>
+        <v>-0.03681504378710176</v>
       </c>
       <c r="D239">
-        <v>-0.4577654605005964</v>
+        <v>-0.02459241684183803</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.03681504378710176</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C240">
-        <v>139.800094325583</v>
+        <v>-0.05777020255662624</v>
       </c>
       <c r="D240">
-        <v>-0.426902116305482</v>
+        <v>-0.03490657859723844</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.05777020255662624</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C241">
-        <v>140.042300560595</v>
+        <v>-0.2241718855427752</v>
       </c>
       <c r="D241">
-        <v>-0.4147132411108617</v>
+        <v>-0.1354517241707765</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.2241718855427752</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C242">
-        <v>140.2845067956069</v>
+        <v>0.04874341356984679</v>
       </c>
       <c r="D242">
-        <v>-0.3746683502577117</v>
+        <v>0.02945230796457365</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.04874341356984679</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C243">
-        <v>140.5267130306189</v>
+        <v>-0.05615348255578034</v>
       </c>
       <c r="D243">
-        <v>-0.3813295089274193</v>
+        <v>-0.03392970537745117</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05615348255578034</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C244">
-        <v>140.7689192656309</v>
+        <v>-0.1311999747388182</v>
       </c>
       <c r="D244">
-        <v>-0.3838432094007716</v>
+        <v>-0.07927516310311013</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1311999747388182</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C245">
-        <v>141.0111255006429</v>
+        <v>0.08471951997822558</v>
       </c>
       <c r="D245">
-        <v>-0.3867013743855938</v>
+        <v>0.05119020623030592</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.08471951997822558</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C246">
-        <v>141.5481077491636</v>
+        <v>-0.1464922362111878</v>
       </c>
       <c r="D246">
-        <v>-0.4161141147305275</v>
+        <v>-0.09785668483329926</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1464922362111878</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C247">
-        <v>142.0850899976843</v>
+        <v>0.007219212382824303</v>
       </c>
       <c r="D247">
-        <v>-0.4410305965777588</v>
+        <v>0.004822427516720076</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.007219212382824303</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C248">
-        <v>142.622072246205</v>
+        <v>-0.1541030437667512</v>
       </c>
       <c r="D248">
-        <v>-0.3800528875708186</v>
+        <v>-0.1029406975806914</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.1541030437667512</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C249">
-        <v>143.1590544947257</v>
+        <v>0.06528848992402558</v>
       </c>
       <c r="D249">
-        <v>-0.4006331573157436</v>
+        <v>0.04361265379638922</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.06528848992402558</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C250">
-        <v>143.6960367432464</v>
+        <v>0.009585317295151441</v>
       </c>
       <c r="D250">
-        <v>-0.4110262339952593</v>
+        <v>0.006402983515294116</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.009585317295151441</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C251">
-        <v>144.2330189917671</v>
+        <v>-0.06883450582029749</v>
       </c>
       <c r="D251">
-        <v>-0.3894050223215484</v>
+        <v>-0.04598138929357353</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.06883450582029749</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C252">
-        <v>144.7700012402878</v>
+        <v>0.1511078847491003</v>
       </c>
       <c r="D252">
-        <v>-0.371166766507517</v>
+        <v>0.1009399339935117</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1511078847491003</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C253">
-        <v>145.3069834888085</v>
+        <v>0.043947803174337</v>
       </c>
       <c r="D253">
-        <v>-0.3698878359255436</v>
+        <v>0.02935709383360839</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.043947803174337</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C254">
-        <v>145.8439657373292</v>
+        <v>0.06057649669109999</v>
       </c>
       <c r="D254">
-        <v>-0.3571063245740732</v>
+        <v>0.04046504646471943</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.06057649669109999</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C255">
-        <v>146.3809479858499</v>
+        <v>-0.07182027344762965</v>
       </c>
       <c r="D255">
-        <v>-0.3437833002077619</v>
+        <v>-0.04797587944028751</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.07182027344762965</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C256">
-        <v>146.9179302343706</v>
+        <v>0.01028886228522197</v>
       </c>
       <c r="D256">
-        <v>-0.3001952329969615</v>
+        <v>0.006872950949337014</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.01028886228522197</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C257">
-        <v>147.4549124828913</v>
+        <v>0.01620034979511864</v>
       </c>
       <c r="D257">
-        <v>-0.314100866999333</v>
+        <v>0.01082181940211967</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.01620034979511864</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C258">
-        <v>147.991894731412</v>
+        <v>-0.04748394512942333</v>
       </c>
       <c r="D258">
-        <v>-0.3520988414131663</v>
+        <v>-0.03171923354677268</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04748394512942333</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C259">
-        <v>148.5288769799327</v>
+        <v>0.08685098735984464</v>
       </c>
       <c r="D259">
-        <v>-0.329719515596994</v>
+        <v>0.0580163831022473</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.08685098735984464</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C260">
-        <v>149.0658592284534</v>
+        <v>-0.01347419817865791</v>
       </c>
       <c r="D260">
-        <v>-0.3281114497696545</v>
+        <v>-0.009000752522130206</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.01347419817865791</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C261">
-        <v>149.6028414769741</v>
+        <v>0.05023061706102361</v>
       </c>
       <c r="D261">
-        <v>-0.3444961253288354</v>
+        <v>0.03355400797921151</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.05023061706102361</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C262">
-        <v>150.1398237254948</v>
+        <v>0.01983760147425961</v>
       </c>
       <c r="D262">
-        <v>-0.329480212320426</v>
+        <v>0.01325150032194649</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.01983760147425961</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C263">
-        <v>150.6768059740155</v>
+        <v>0.06517374024599309</v>
       </c>
       <c r="D263">
-        <v>-0.3033764063781597</v>
+        <v>0.04353600111247661</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.06517374024599309</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C264">
-        <v>151.2137882225362</v>
+        <v>-0.01084114891132781</v>
       </c>
       <c r="D264">
-        <v>-0.3138251605996068</v>
+        <v>-0.00724187792940286</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.01084114891132781</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C265">
-        <v>151.7507704710569</v>
+        <v>-0.004091090229394467</v>
       </c>
       <c r="D265">
-        <v>-0.3285239301414264</v>
+        <v>-0.002732844671886235</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.004091090229394467</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C266">
-        <v>152.2877527195776</v>
+        <v>-0.004651712074434045</v>
       </c>
       <c r="D266">
-        <v>-0.3560833871419589</v>
+        <v>-0.003107339570862396</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.004651712074434045</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C267">
-        <v>152.8247349680983</v>
+        <v>-0.04786973464837807</v>
       </c>
       <c r="D267">
-        <v>-0.3503186916445006</v>
+        <v>-0.03197694060582746</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.04786973464837807</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C268">
-        <v>153.361717216619</v>
+        <v>-0.04055199754971284</v>
       </c>
       <c r="D268">
-        <v>-0.3520311464965916</v>
+        <v>-0.02708869866565605</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.04055199754971284</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C269">
-        <v>153.8986994651397</v>
+        <v>0.0992422574502152</v>
       </c>
       <c r="D269">
-        <v>-0.3073079873707831</v>
+        <v>0.06629374061469323</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0992422574502152</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C270">
-        <v>154.4356817136604</v>
+        <v>-0.03349473867882224</v>
       </c>
       <c r="D270">
-        <v>-0.3253398277723275</v>
+        <v>-0.0223744559523415</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.03349473867882224</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C271">
-        <v>154.9726639621811</v>
+        <v>-0.01691490887942226</v>
       </c>
       <c r="D271">
-        <v>-0.3003279023341664</v>
+        <v>-0.01129914424141467</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.01691490887942226</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C272">
-        <v>155.5096462107018</v>
+        <v>0.03518888935403908</v>
       </c>
       <c r="D272">
-        <v>-0.310303080150457</v>
+        <v>0.02350614711204101</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.03518888935403908</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C273">
-        <v>156.0466284592225</v>
+        <v>0.02968307121431835</v>
       </c>
       <c r="D273">
-        <v>-0.3147694015365602</v>
+        <v>0.01982826544142886</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.02968307121431835</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C274">
-        <v>156.5836107077432</v>
+        <v>0.002081481251824613</v>
       </c>
       <c r="D274">
-        <v>-0.2956425389091611</v>
+        <v>0.001390427643909955</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.002081481251824613</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C275">
-        <v>157.1205929562639</v>
+        <v>0.02080212688871441</v>
       </c>
       <c r="D275">
-        <v>-0.2879429393750116</v>
+        <v>0.0138958024497394</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.02080212688871441</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C276">
-        <v>157.6575752047846</v>
+        <v>0.02168344852094162</v>
       </c>
       <c r="D276">
-        <v>-0.3076467049443611</v>
+        <v>0.01448452452424781</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.02168344852094162</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C277">
-        <v>158.1945574533054</v>
+        <v>0.07094031996838712</v>
       </c>
       <c r="D277">
-        <v>-0.3086759405549389</v>
+        <v>0.0473880712907685</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.07094031996838712</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C278">
-        <v>158.7315397018261</v>
+        <v>-0.0226316556024555</v>
       </c>
       <c r="D278">
-        <v>-0.297530747372501</v>
+        <v>-0.01511792602000108</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.0226316556024555</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C279">
-        <v>159.2685219503468</v>
+        <v>-0.06184234896288299</v>
       </c>
       <c r="D279">
-        <v>-0.280046020245776</v>
+        <v>-0.0413106346679523</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.06184234896288299</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C280">
-        <v>159.8055041988675</v>
+        <v>0.03642273300162913</v>
       </c>
       <c r="D280">
-        <v>-0.2600004737070379</v>
+        <v>0.0243303535824899</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.03642273300162913</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C281">
-        <v>160.3424864473882</v>
+        <v>0.002617154455828441</v>
       </c>
       <c r="D281">
-        <v>-0.2610226793848496</v>
+        <v>0.001748256872636295</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.002617154455828441</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C282">
-        <v>160.8794686959089</v>
+        <v>-0.02666633785630435</v>
       </c>
       <c r="D282">
-        <v>-0.2130263956747683</v>
+        <v>-0.01781309021387826</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.02666633785630435</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C283">
-        <v>161.4164509444296</v>
+        <v>0.02443865354897135</v>
       </c>
       <c r="D283">
-        <v>-0.1847941300743241</v>
+        <v>0.01632499905758991</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.02443865354897135</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C284">
-        <v>161.9534331929503</v>
+        <v>0.04248438768760554</v>
       </c>
       <c r="D284">
-        <v>-0.2091897487617387</v>
+        <v>0.02837953357670303</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.04248438768760554</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C285">
-        <v>162.490415441471</v>
+        <v>-0.0170055250249046</v>
       </c>
       <c r="D285">
-        <v>-0.2428583105415814</v>
+        <v>-0.0113596757468283</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.0170055250249046</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C286">
-        <v>163.0273976899917</v>
+        <v>-0.02392249716867223</v>
       </c>
       <c r="D286">
-        <v>-0.3091338885569138</v>
+        <v>-0.01598020704991784</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.02392249716867223</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C287">
-        <v>163.5643799385124</v>
+        <v>-0.04485348451716487</v>
       </c>
       <c r="D287">
-        <v>-0.2913019839000757</v>
+        <v>-0.02996208817335441</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.04485348451716487</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C288">
-        <v>164.1013621870331</v>
+        <v>0.009382139867139649</v>
       </c>
       <c r="D288">
-        <v>-0.2907223992298202</v>
+        <v>0.006267261172237468</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.009382139867139649</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C289">
-        <v>164.6383444355538</v>
+        <v>-0.002787049367232619</v>
       </c>
       <c r="D289">
-        <v>-0.272154755261796</v>
+        <v>-0.001861746523897351</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.002787049367232619</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C290">
-        <v>165.1753266840745</v>
+        <v>0.07278770134583556</v>
       </c>
       <c r="D290">
-        <v>-0.2944090995207382</v>
+        <v>0.04862212042467114</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.07278770134583556</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C291">
-        <v>165.7123089325952</v>
+        <v>-0.02934712662339578</v>
       </c>
       <c r="D291">
-        <v>-0.2864800404400806</v>
+        <v>-0.01960385475042153</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.02934712662339578</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C292">
-        <v>166.4432651724655</v>
+        <v>0.0374746261768566</v>
       </c>
       <c r="D292">
-        <v>-0.2977558903293653</v>
+        <v>0.02651380654998848</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.0374746261768566</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C293">
-        <v>167.1742214123359</v>
+        <v>-0.01494551311682812</v>
       </c>
       <c r="D293">
-        <v>-0.2935582345707894</v>
+        <v>-0.01057415334044395</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.01494551311682812</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C294">
-        <v>167.9051776522062</v>
+        <v>-0.006691756887878597</v>
       </c>
       <c r="D294">
-        <v>-0.2930437638228013</v>
+        <v>-0.004734508805169583</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.006691756887878597</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C295">
-        <v>168.6361338920766</v>
+        <v>0.0286572110839689</v>
       </c>
       <c r="D295">
-        <v>-0.3310671090019646</v>
+        <v>0.02027536571963934</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.0286572110839689</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C296">
-        <v>169.3670901319469</v>
+        <v>0.01153608165701314</v>
       </c>
       <c r="D296">
-        <v>-0.318359458422975</v>
+        <v>0.008161934316714064</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01153608165701314</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C297">
-        <v>170.0980463718173</v>
+        <v>-0.02952156765433234</v>
       </c>
       <c r="D297">
-        <v>-0.3422137820471435</v>
+        <v>-0.02088690972247133</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.02952156765433234</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C298">
-        <v>170.8290026116876</v>
+        <v>-0.001542073194231719</v>
       </c>
       <c r="D298">
-        <v>-0.3327498319265588</v>
+        <v>-0.001091037710818659</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.001542073194231719</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C299">
-        <v>171.559958851558</v>
+        <v>0.01669851244412701</v>
       </c>
       <c r="D299">
-        <v>-0.3193526067004427</v>
+        <v>0.01181442415267067</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.01669851244412701</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C300">
-        <v>172.2909150914283</v>
+        <v>0.02619684815942502</v>
       </c>
       <c r="D300">
-        <v>-0.334850608933084</v>
+        <v>0.01853462556345315</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.02619684815942502</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C301">
-        <v>173.0218713312987</v>
+        <v>0.03003364794554653</v>
       </c>
       <c r="D301">
-        <v>-0.3273682733192247</v>
+        <v>0.02124921347742379</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.03003364794554653</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C302">
-        <v>173.752827571169</v>
+        <v>-0.001531540454434932</v>
       </c>
       <c r="D302">
-        <v>-0.3249005060000599</v>
+        <v>-0.001083585654483382</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.001531540454434932</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C303">
-        <v>174.4837838110394</v>
+        <v>0.07191140859429535</v>
       </c>
       <c r="D303">
-        <v>-0.3464760346979915</v>
+        <v>0.05087829741671508</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.07191140859429535</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C304">
-        <v>175.2147400509097</v>
+        <v>0.04229956634558718</v>
       </c>
       <c r="D304">
-        <v>-0.3471790713715891</v>
+        <v>0.02992751719369856</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.04229956634558718</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C305">
-        <v>175.9456962907801</v>
+        <v>-0.03655123204825994</v>
       </c>
       <c r="D305">
-        <v>-0.3803974012833289</v>
+        <v>-0.0258604926735681</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.03655123204825994</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C306">
-        <v>176.6766525306504</v>
+        <v>-0.0504446077024916</v>
       </c>
       <c r="D306">
-        <v>-0.3590478546870871</v>
+        <v>-0.03569024448174255</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.0504446077024916</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C307">
-        <v>177.4076087705208</v>
+        <v>-0.09929873319509941</v>
       </c>
       <c r="D307">
-        <v>-0.3626376280599428</v>
+        <v>-0.07025520121718333</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.09929873319509941</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C308">
-        <v>178.1385650103911</v>
+        <v>0.02671701395754233</v>
       </c>
       <c r="D308">
-        <v>-0.3390067227933564</v>
+        <v>0.01890264992425972</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.02671701395754233</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C309">
-        <v>178.8695212502615</v>
+        <v>0.0008683745243587282</v>
       </c>
       <c r="D309">
-        <v>-0.3260509953769889</v>
+        <v>0.0006143867598072155</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.0008683745243587282</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C310">
-        <v>179.6004774901319</v>
+        <v>0.0278193503497759</v>
       </c>
       <c r="D310">
-        <v>-0.3294671683848674</v>
+        <v>0.01968256788044584</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0278193503497759</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C311">
-        <v>180.3314337300022</v>
+        <v>-0.03334302406973144</v>
       </c>
       <c r="D311">
-        <v>-0.339701931533529</v>
+        <v>-0.02359064199344667</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.03334302406973144</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C312">
-        <v>181.0623899698726</v>
+        <v>0.01187987409112079</v>
       </c>
       <c r="D312">
-        <v>-0.3513396887297124</v>
+        <v>0.008405172129101081</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.01187987409112079</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C313">
-        <v>181.7933462097429</v>
+        <v>-0.01689427151348344</v>
       </c>
       <c r="D313">
-        <v>-0.3115000057953617</v>
+        <v>-0.01195292635068665</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.01689427151348344</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C314">
-        <v>182.5243024496133</v>
+        <v>0.006289223145202527</v>
       </c>
       <c r="D314">
-        <v>-0.3205046932147099</v>
+        <v>0.004449710719852128</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.006289223145202527</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C315">
-        <v>183.2552586894836</v>
+        <v>0.000770816265522889</v>
       </c>
       <c r="D315">
-        <v>-0.3219044692305086</v>
+        <v>0.0005453629678174079</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.000770816265522889</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C316">
-        <v>183.986214929354</v>
+        <v>-0.0569692505323367</v>
       </c>
       <c r="D316">
-        <v>-0.3258395322733368</v>
+        <v>-0.04030651782311931</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.0569692505323367</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C317">
-        <v>184.7171711692243</v>
+        <v>0.01903949602805</v>
       </c>
       <c r="D317">
-        <v>-0.3244314878230745</v>
+        <v>0.01347070180539251</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01903949602805</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C318">
-        <v>185.4481274090947</v>
+        <v>-0.03574022570663793</v>
       </c>
       <c r="D318">
-        <v>-0.3362092462070367</v>
+        <v>-0.02528669468153211</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.03574022570663793</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C319">
-        <v>186.179083648965</v>
+        <v>0.01417955582036967</v>
       </c>
       <c r="D319">
-        <v>-0.3221146890647424</v>
+        <v>0.01003222815917573</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01417955582036967</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C320">
-        <v>186.7160658974857</v>
+        <v>0.02180421168098334</v>
       </c>
       <c r="D320">
-        <v>-0.3500473648870151</v>
+        <v>0.01456519420884898</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.02180421168098334</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C321">
-        <v>187.2530481460064</v>
+        <v>-0.02522326195234292</v>
       </c>
       <c r="D321">
-        <v>-0.3546918641067191</v>
+        <v>-0.01684911678035853</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.02522326195234292</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C322">
-        <v>187.9840043858768</v>
+        <v>0.01121056156801714</v>
       </c>
       <c r="D322">
-        <v>-0.3529280380543562</v>
+        <v>0.007931624436448863</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.01121056156801714</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C323">
-        <v>188.7149606257471</v>
+        <v>0.003697382594786802</v>
       </c>
       <c r="D323">
-        <v>-0.3367343731336487</v>
+        <v>0.002615948359213085</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.003697382594786802</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C324">
-        <v>189.4459168656175</v>
+        <v>-0.03232597484436095</v>
       </c>
       <c r="D324">
-        <v>-0.3297270412863056</v>
+        <v>-0.02287106586516117</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.03232597484436095</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C325">
-        <v>190.1768731054878</v>
+        <v>-0.001053339000103293</v>
       </c>
       <c r="D325">
-        <v>-0.3344935319976153</v>
+        <v>-0.0007452516363604092</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.001053339000103293</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C326">
-        <v>190.9078293453582</v>
+        <v>-0.04977003864575202</v>
       </c>
       <c r="D326">
-        <v>-0.3341604324594696</v>
+        <v>-0.03521297772021188</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.04977003864575202</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C327">
-        <v>191.6387855852285</v>
+        <v>0.03198739256270411</v>
       </c>
       <c r="D327">
-        <v>-0.3138955555124754</v>
+        <v>0.02263151430633476</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.03198739256270411</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C328">
-        <v>192.3697418250989</v>
+        <v>-0.005378450992907347</v>
       </c>
       <c r="D328">
-        <v>-0.3154896684550262</v>
+        <v>-0.003805327062944982</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.005378450992907347</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C329">
-        <v>193.1006980649692</v>
+        <v>0.03540548460675197</v>
       </c>
       <c r="D329">
-        <v>-0.3119830302697963</v>
+        <v>0.02504986081093334</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.03540548460675197</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C330">
-        <v>193.8316543048396</v>
+        <v>0.01941118219698801</v>
       </c>
       <c r="D330">
-        <v>-0.3253698539954172</v>
+        <v>0.01373367481368939</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.01941118219698801</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C331">
-        <v>194.5626105447099</v>
+        <v>-0.00511835071403155</v>
       </c>
       <c r="D331">
-        <v>-0.3191078467263559</v>
+        <v>-0.003621302586085227</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.00511835071403155</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C332">
-        <v>195.2935667845803</v>
+        <v>-0.01533444212253965</v>
       </c>
       <c r="D332">
-        <v>-0.3233305907127911</v>
+        <v>-0.010849325889743</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.01533444212253965</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C333">
-        <v>196.0245230244506</v>
+        <v>-0.01743650649935979</v>
       </c>
       <c r="D333">
-        <v>-0.3348744208558569</v>
+        <v>-0.01233656496131114</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.01743650649935979</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C334">
-        <v>196.755479264321</v>
+        <v>0.05969061552900001</v>
       </c>
       <c r="D334">
-        <v>-0.3426345598666454</v>
+        <v>0.04223192048712244</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.05969061552900001</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C335">
-        <v>197.4864355041913</v>
+        <v>-0.01349145613414748</v>
       </c>
       <c r="D335">
-        <v>-0.3570016746438751</v>
+        <v>-0.009545388293675752</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.01349145613414748</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C336">
-        <v>198.2173917440617</v>
+        <v>-0.002097242895317208</v>
       </c>
       <c r="D336">
-        <v>-0.3611994009920885</v>
+        <v>-0.001483827807977416</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.002097242895317208</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C337">
-        <v>198.9483479839321</v>
+        <v>-0.005895788266158775</v>
       </c>
       <c r="D337">
-        <v>-0.3430683356331882</v>
+        <v>-0.004171350204025918</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.005895788266158775</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C338">
-        <v>199.6793042238024</v>
+        <v>0.002109631245480692</v>
       </c>
       <c r="D338">
-        <v>-0.35261006565216</v>
+        <v>0.001492592733827723</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.002109631245480692</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C339">
-        <v>200.4102604636728</v>
+        <v>-0.01764626612739395</v>
       </c>
       <c r="D339">
-        <v>-0.3676709577617631</v>
+        <v>-0.0124849727445789</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.01764626612739395</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C340">
-        <v>201.1412167035431</v>
+        <v>0.02111745700432799</v>
       </c>
       <c r="D340">
-        <v>-0.3659972764242712</v>
+        <v>0.01494088739399446</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.02111745700432799</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C341">
-        <v>201.8721729434135</v>
+        <v>-0.04185069986503009</v>
       </c>
       <c r="D341">
-        <v>-0.3537358797619103</v>
+        <v>-0.02960993806759604</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.04185069986503009</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C342">
-        <v>202.6031291832838</v>
+        <v>-0.006958715452252129</v>
       </c>
       <c r="D342">
-        <v>-0.368546940642744</v>
+        <v>-0.004923385612085771</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>-0.006958715452252129</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C343">
-        <v>203.3340854231542</v>
+        <v>0.002642688269510529</v>
       </c>
       <c r="D343">
-        <v>-0.3747112249980187</v>
+        <v>0.001869737811901059</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.002642688269510529</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C344">
-        <v>204.0650416630245</v>
+        <v>0.02426248794148833</v>
       </c>
       <c r="D344">
-        <v>-0.3774974905936267</v>
+        <v>0.01716603946003684</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.02426248794148833</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C345">
-        <v>204.7959979028949</v>
+        <v>0.01049887751047418</v>
       </c>
       <c r="D345">
-        <v>-0.3820054055114884</v>
+        <v>0.007428098308200032</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01049887751047418</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C346">
-        <v>205.5269541427652</v>
+        <v>-0.007141491686572188</v>
       </c>
       <c r="D346">
-        <v>-0.3842067314141517</v>
+        <v>-0.005052702278136739</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.007141491686572188</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C347">
-        <v>206.2579103826356</v>
+        <v>0.0004990731602232401</v>
       </c>
       <c r="D347">
-        <v>-0.4094186769815534</v>
+        <v>0.0003531010332698757</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.0004990731602232401</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C348">
-        <v>206.9888666225059</v>
+        <v>0.03036226419218213</v>
       </c>
       <c r="D348">
-        <v>-0.4053308027427123</v>
+        <v>0.0214817139312338</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.03036226419218213</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C349">
-        <v>207.7198228623763</v>
+        <v>-0.002388412149775476</v>
       </c>
       <c r="D349">
-        <v>-0.4302697286055052</v>
+        <v>-0.001689834006667093</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.002388412149775476</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C350">
-        <v>208.4507791022466</v>
+        <v>0.0052538920065901</v>
       </c>
       <c r="D350">
-        <v>-0.4285686938566604</v>
+        <v>0.003717199889862794</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.0052538920065901</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C351">
-        <v>209.181735342117</v>
+        <v>-0.02005708101335202</v>
       </c>
       <c r="D351">
-        <v>-0.4244438979636845</v>
+        <v>-0.01419065699109982</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.02005708101335202</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C352">
-        <v>209.9126915819873</v>
+        <v>0.009382179796793899</v>
       </c>
       <c r="D352">
-        <v>-0.429555863568854</v>
+        <v>0.006638019522207538</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.009382179796793899</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C353">
-        <v>210.6436478218577</v>
+        <v>-0.006326812093034206</v>
       </c>
       <c r="D353">
-        <v>-0.4030851860186683</v>
+        <v>-0.004476305410524246</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.006326812093034206</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C354">
-        <v>211.374604061728</v>
+        <v>-0.01729577838099949</v>
       </c>
       <c r="D354">
-        <v>-0.4017151126241326</v>
+        <v>-0.01223699790789372</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.01729577838099949</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C355">
-        <v>212.1055603015984</v>
+        <v>-0.01162678615961532</v>
       </c>
       <c r="D355">
-        <v>-0.4094719312933425</v>
+        <v>-0.008226108983163234</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.01162678615961532</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C356">
-        <v>212.8365165414687</v>
+        <v>-0.02152582202628928</v>
       </c>
       <c r="D356">
-        <v>-0.431672223950847</v>
+        <v>-0.01522981118853654</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.02152582202628928</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C357">
-        <v>213.5674727813391</v>
+        <v>-0.006289328907563174</v>
       </c>
       <c r="D357">
-        <v>-0.4385623428102331</v>
+        <v>-0.004449785548157478</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.006289328907563174</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C358">
-        <v>214.2984290212094</v>
+        <v>0.02716523756608868</v>
       </c>
       <c r="D358">
-        <v>-0.4696194364654065</v>
+        <v>0.01921977420969088</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.02716523756608868</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C359">
-        <v>215.0293852610798</v>
+        <v>-0.01429609113562691</v>
       </c>
       <c r="D359">
-        <v>-0.4690660187507221</v>
+        <v>-0.01011467847610192</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.01429609113562691</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C360">
-        <v>215.7603415009501</v>
+        <v>-0.02256528803001423</v>
       </c>
       <c r="D360">
-        <v>-0.469502889332916</v>
+        <v>-0.01596524749170302</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.02256528803001423</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C361">
-        <v>216.4912977408205</v>
+        <v>0.002507627116383304</v>
       </c>
       <c r="D361">
-        <v>-0.4541522292111763</v>
+        <v>0.001774180213286636</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.002507627116383304</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C362">
-        <v>217.2222539806909</v>
+        <v>0.01837088701804124</v>
       </c>
       <c r="D362">
-        <v>-0.4725982854421782</v>
+        <v>0.01299765185780159</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.01837088701804124</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C363">
-        <v>217.9532102205612</v>
+        <v>-0.0221909733084793</v>
       </c>
       <c r="D363">
-        <v>-0.4741807220642846</v>
+        <v>-0.01570041474677442</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.0221909733084793</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C364">
-        <v>218.6841664604316</v>
+        <v>-0.009235764452956374</v>
       </c>
       <c r="D364">
-        <v>-0.4954343688873897</v>
+        <v>-0.006534428679589456</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.009235764452956374</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C365">
-        <v>219.4151227003019</v>
+        <v>-0.004174579117589339</v>
       </c>
       <c r="D365">
-        <v>-0.48883394267948</v>
+        <v>-0.002953571374642319</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>-0.004174579117589339</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C366">
-        <v>220.1460789401723</v>
+        <v>-0.006754075243091684</v>
       </c>
       <c r="D366">
-        <v>-0.4696194364654066</v>
+        <v>-0.004778599887141567</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.006754075243091684</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C367">
-        <v>220.8770351800426</v>
+        <v>-0.003298181321533811</v>
       </c>
       <c r="D367">
-        <v>-0.4798673342738341</v>
+        <v>-0.002333508041233995</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.003298181321533811</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C368">
-        <v>221.607991419913</v>
+        <v>-0.03777431040507295</v>
       </c>
       <c r="D368">
-        <v>-0.4702899777083336</v>
+        <v>-0.02672583720816002</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.03777431040507295</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C369">
-        <v>222.3389476597833</v>
+        <v>0.006124740749660518</v>
       </c>
       <c r="D369">
-        <v>-0.4455524394748207</v>
+        <v>0.004333337192983624</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.006124740749660518</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C370">
-        <v>223.0699038996537</v>
+        <v>-0.03736525307782212</v>
       </c>
       <c r="D370">
-        <v>-0.4562624760196281</v>
+        <v>-0.02643642359823102</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.03736525307782212</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C371">
-        <v>223.800860139524</v>
+        <v>0.002548609921471545</v>
       </c>
       <c r="D371">
-        <v>-0.4541807016335639</v>
+        <v>0.00180317610402234</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.002548609921471545</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C372">
-        <v>224.5318163793944</v>
+        <v>0.006180059369170543</v>
       </c>
       <c r="D372">
-        <v>-0.4646551193937311</v>
+        <v>0.004372475866959431</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.006180059369170543</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C373">
-        <v>225.2627726192647</v>
+        <v>-0.007659106475281341</v>
       </c>
       <c r="D373">
-        <v>-0.4626047109906032</v>
+        <v>-0.005418921765169893</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.007659106475281341</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C374">
-        <v>225.9937288591351</v>
+        <v>0.03966023120826367</v>
       </c>
       <c r="D374">
-        <v>-0.4548359028067234</v>
+        <v>0.02806015176832175</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.03966023120826367</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C375">
-        <v>226.7246850990054</v>
+        <v>0.002052740338684522</v>
       </c>
       <c r="D375">
-        <v>-0.4704066623745914</v>
+        <v>0.001452341645261064</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.002052740338684522</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C376">
-        <v>227.4556413388758</v>
+        <v>-0.01162181139028995</v>
       </c>
       <c r="D376">
-        <v>-0.4823790555900188</v>
+        <v>-0.008222589266358021</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01162181139028995</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C377">
-        <v>228.1865975787461</v>
+        <v>-0.03326204015815115</v>
       </c>
       <c r="D377">
-        <v>-0.4760251490970052</v>
+        <v>-0.0235333447770537</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.03326204015815115</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C378">
-        <v>228.9175538186165</v>
+        <v>-0.0103232607664685</v>
       </c>
       <c r="D378">
-        <v>-0.4873315215458954</v>
+        <v>-0.007303847078700615</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-0.0103232607664685</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C379">
-        <v>229.6485100584868</v>
+        <v>-0.04653192245214122</v>
       </c>
       <c r="D379">
-        <v>-0.4643805039081164</v>
+        <v>-0.03292196657206588</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.04653192245214122</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C380">
-        <v>230.3794662983572</v>
+        <v>0.0008291693507853637</v>
       </c>
       <c r="D380">
-        <v>-0.4680852768648281</v>
+        <v>0.000586648567490707</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.0008291693507853637</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C381">
-        <v>231.1104225382275</v>
+        <v>-0.0006545502382797608</v>
       </c>
       <c r="D381">
-        <v>-0.4879595370272035</v>
+        <v>-0.0004631031758154329</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>-0.0006545502382797608</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C382">
-        <v>231.8413787780979</v>
+        <v>0.0229994388497774</v>
       </c>
       <c r="D382">
-        <v>-0.4958059915094483</v>
+        <v>0.01627241508810265</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.0229994388497774</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C383">
-        <v>232.5723350179682</v>
+        <v>-0.02763717904897511</v>
       </c>
       <c r="D383">
-        <v>-0.5245565549815826</v>
+        <v>-0.0195536792130687</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.02763717904897511</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C384">
-        <v>233.3032912578386</v>
+        <v>-0.002370917865104794</v>
       </c>
       <c r="D384">
-        <v>-0.5035026062639554</v>
+        <v>-0.001677456562865522</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-0.002370917865104794</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C385">
-        <v>234.0342474977089</v>
+        <v>-0.03184370877643872</v>
       </c>
       <c r="D385">
-        <v>-0.5022393098149234</v>
+        <v>-0.02252985607776614</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.03184370877643872</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C386">
-        <v>234.7652037375793</v>
+        <v>0.009889222857347946</v>
       </c>
       <c r="D386">
-        <v>-0.4782048349799282</v>
+        <v>0.006996759368112833</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.009889222857347946</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C387">
-        <v>235.4961599774497</v>
+        <v>0.02878852487088768</v>
       </c>
       <c r="D387">
-        <v>-0.4832121954292013</v>
+        <v>0.02036827200580961</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.02878852487088768</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C388">
-        <v>236.22711621732</v>
+        <v>-0.01535412139377001</v>
       </c>
       <c r="D388">
-        <v>-0.4821360225613627</v>
+        <v>-0.01086324924118577</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01535412139377001</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C389">
-        <v>236.9580724571904</v>
+        <v>0.01434946933381642</v>
       </c>
       <c r="D389">
-        <v>-0.4824049031452745</v>
+        <v>0.01015244427566199</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01434946933381642</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C390">
-        <v>237.6890286970607</v>
+        <v>0.0370635199648488</v>
       </c>
       <c r="D390">
-        <v>-0.4968433784079375</v>
+        <v>0.02622294332629061</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.0370635199648488</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C391">
-        <v>238.4199849369311</v>
+        <v>-0.01604653015816115</v>
       </c>
       <c r="D391">
-        <v>-0.4080823840962104</v>
+        <v>-0.01135313783796438</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>-0.01604653015816115</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C392">
-        <v>239.1509411768014</v>
+        <v>0.003119060829410714</v>
       </c>
       <c r="D392">
-        <v>-0.3914497354646731</v>
+        <v>0.00220677786239572</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.003119060829410714</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C393">
-        <v>239.8818974166718</v>
+        <v>-0.01569350952020709</v>
       </c>
       <c r="D393">
-        <v>-0.3970794909716553</v>
+        <v>-0.0111033709461295</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.01569350952020709</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C394">
-        <v>240.6128536565421</v>
+        <v>0.00307206610730848</v>
       </c>
       <c r="D394">
-        <v>-0.4201129630100421</v>
+        <v>0.002173528458791033</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.00307206610730848</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C395">
-        <v>241.3438098964125</v>
+        <v>0.01163977492458113</v>
       </c>
       <c r="D395">
-        <v>-0.3951626633615626</v>
+        <v>0.008235298710633799</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.01163977492458113</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C396">
-        <v>242.0747661362828</v>
+        <v>-0.02332920732305155</v>
       </c>
       <c r="D396">
-        <v>-0.3531451537096884</v>
+        <v>-0.01650573075789512</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-0.02332920732305155</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C397">
-        <v>242.3192105807273</v>
+        <v>-0.02124872878314754</v>
       </c>
       <c r="D397">
-        <v>-0.3498296390429184</v>
+        <v>-0.01284969612375297</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.02124872878314754</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C398">
-        <v>242.5636550251717</v>
+        <v>0.01127697974449671</v>
       </c>
       <c r="D398">
-        <v>-0.3693182145012432</v>
+        <v>0.006819502681281597</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.01127697974449671</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C399">
-        <v>242.8080994696161</v>
+        <v>-0.02006666815604952</v>
       </c>
       <c r="D399">
-        <v>-0.359179746810183</v>
+        <v>-0.01213487125055354</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.02006666815604952</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C400">
-        <v>243.0525439140606</v>
+        <v>0.04073370631144879</v>
       </c>
       <c r="D400">
-        <v>-0.3626919875296864</v>
+        <v>0.02463280290496431</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.04073370631144879</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C401">
-        <v>243.7835001539309</v>
+        <v>-0.005550751459185044</v>
       </c>
       <c r="D401">
-        <v>-0.3169900535559406</v>
+        <v>-0.003927231980950035</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>-0.005550751459185044</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C402">
-        <v>244.0279445983754</v>
+        <v>-0.03527304494241434</v>
       </c>
       <c r="D402">
-        <v>-0.2834025540407524</v>
+        <v>-0.02133058939643386</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.03527304494241434</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C403">
-        <v>244.2723890428198</v>
+        <v>-0.01392596953695868</v>
       </c>
       <c r="D403">
-        <v>-0.2997690946498933</v>
+        <v>-0.008421420340236145</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.01392596953695868</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C404">
-        <v>245.0033452826902</v>
+        <v>-0.04307611667706279</v>
       </c>
       <c r="D404">
-        <v>-0.3081629041797875</v>
+        <v>-0.03047693709098867</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.04307611667706279</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C405">
-        <v>245.7343015225605</v>
+        <v>0.03154450702687672</v>
       </c>
       <c r="D405">
-        <v>-0.3449964838383712</v>
+        <v>0.02231816677978979</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.03154450702687672</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C406">
-        <v>246.4652577624309</v>
+        <v>0.001892759607614813</v>
       </c>
       <c r="D406">
-        <v>-0.3420842417546732</v>
+        <v>0.001339153107094203</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.001892759607614813</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C407">
-        <v>247.1962140023012</v>
+        <v>0.03601014092359023</v>
       </c>
       <c r="D407">
-        <v>-0.3213891026593594</v>
+        <v>0.02547766336026948</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.03601014092359023</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C408">
-        <v>247.9271702421716</v>
+        <v>-0.007502379672177817</v>
       </c>
       <c r="D408">
-        <v>-0.3142901402090854</v>
+        <v>-0.005308035425194839</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-0.007502379672177817</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C409">
-        <v>248.6581264820419</v>
+        <v>0.00161239789490164</v>
       </c>
       <c r="D409">
-        <v>-0.279003729674168</v>
+        <v>0.001140793390847287</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.00161239789490164</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C410">
-        <v>249.3890827219123</v>
+        <v>-0.0004028558054525178</v>
       </c>
       <c r="D410">
-        <v>-0.2954872293955259</v>
+        <v>-0.0002850259491021774</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>-0.0004028558054525178</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C411">
-        <v>250.1200389617826</v>
+        <v>-0.02163273932548027</v>
       </c>
       <c r="D411">
-        <v>-0.2850901870384616</v>
+        <v>-0.01530545662857959</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.02163273932548027</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C412">
-        <v>250.850995201653</v>
+        <v>0.1329879656463033</v>
       </c>
       <c r="D412">
-        <v>-0.2829813117043068</v>
+        <v>0.09409079033856199</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1329879656463033</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C413">
-        <v>251.5819514415233</v>
+        <v>0.02492020421774033</v>
       </c>
       <c r="D413">
-        <v>-0.2637353049120673</v>
+        <v>0.0176313826506807</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.02492020421774033</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C414">
-        <v>252.3129076813937</v>
+        <v>-0.008434895730553116</v>
       </c>
       <c r="D414">
-        <v>-0.2714674425702608</v>
+        <v>-0.005967803190718</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.008434895730553116</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C415">
-        <v>253.043863921264</v>
+        <v>-0.03451036811730912</v>
       </c>
       <c r="D415">
-        <v>-0.2954872293955259</v>
+        <v>-0.02441655374794123</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.03451036811730912</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C416">
-        <v>253.7748201611344</v>
+        <v>0.03738229408363658</v>
       </c>
       <c r="D416">
-        <v>-0.2827818686162265</v>
+        <v>0.02644848034109083</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.03738229408363658</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C417">
-        <v>254.5057764010047</v>
+        <v>0.06295358871828682</v>
       </c>
       <c r="D417">
-        <v>-0.2854237773137832</v>
+        <v>0.04454051829701809</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.06295358871828682</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C418">
-        <v>255.2367326408751</v>
+        <v>0.004967537306485248</v>
       </c>
       <c r="D418">
-        <v>-0.2892385379524499</v>
+        <v>0.003514600053711557</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.004967537306485248</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C419">
-        <v>255.9676888807454</v>
+        <v>-0.02919915469226186</v>
       </c>
       <c r="D419">
-        <v>-0.3005195469529014</v>
+        <v>-0.02065879817666959</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.02919915469226186</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C420">
-        <v>256.6986451206158</v>
+        <v>0.01519016549397456</v>
       </c>
       <c r="D420">
-        <v>-0.3126198086863091</v>
+        <v>0.01074724821720249</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.01519016549397456</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C421">
-        <v>257.4296013604861</v>
+        <v>-0.005262286117553749</v>
       </c>
       <c r="D421">
-        <v>-0.3243537133237518</v>
+        <v>-0.00372313883727748</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.005262286117553749</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C422">
-        <v>258.1605576003565</v>
+        <v>0.06847385242131221</v>
       </c>
       <c r="D422">
-        <v>-0.3099836365664911</v>
+        <v>0.04844617977676698</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.06847385242131221</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C423">
-        <v>258.8915138402268</v>
+        <v>0.05032315451519143</v>
       </c>
       <c r="D423">
-        <v>-0.3141972342666615</v>
+        <v>0.03560431470361057</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.05032315451519143</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C424">
-        <v>259.6224700800972</v>
+        <v>-0.02452150245898821</v>
       </c>
       <c r="D424">
-        <v>-0.3178301832617831</v>
+        <v>-0.01734929574598938</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.02452150245898821</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C425">
-        <v>260.3534263199675</v>
+        <v>-0.01257619590743708</v>
       </c>
       <c r="D425">
-        <v>-0.3222582980976167</v>
+        <v>-0.008897829263216766</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.01257619590743708</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C426">
-        <v>261.0843825598379</v>
+        <v>-0.05518666013432583</v>
       </c>
       <c r="D426">
-        <v>-0.3116473755816097</v>
+        <v>-0.03904531092681367</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.05518666013432583</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C427">
-        <v>261.8153387997082</v>
+        <v>0.004363325953970154</v>
       </c>
       <c r="D427">
-        <v>-0.3170833490955516</v>
+        <v>0.003087112322672211</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.004363325953970154</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C428">
-        <v>262.5462950395786</v>
+        <v>0.0310069132099553</v>
       </c>
       <c r="D428">
-        <v>-0.316244158344643</v>
+        <v>0.02193781185918148</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.0310069132099553</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C429">
-        <v>263.2772512794489</v>
+        <v>0.01063616492561881</v>
       </c>
       <c r="D429">
-        <v>-0.2866483701184547</v>
+        <v>0.007525231017402094</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.01063616492561881</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C430">
-        <v>264.0082075193193</v>
+        <v>0.05286858251630644</v>
       </c>
       <c r="D430">
-        <v>-0.2669731975298357</v>
+        <v>0.03740523955580208</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.05286858251630644</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C431">
-        <v>264.7391637591896</v>
+        <v>-0.0246967388285011</v>
       </c>
       <c r="D431">
-        <v>-0.2570717068906984</v>
+        <v>-0.01747327785537347</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.0246967388285011</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C432">
-        <v>265.47011999906</v>
+        <v>0.01557758024823919</v>
       </c>
       <c r="D432">
-        <v>-0.2576689271817358</v>
+        <v>0.0110213494130545</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.01557758024823919</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C433">
-        <v>266.2010762389303</v>
+        <v>0.003159665376279541</v>
       </c>
       <c r="D433">
-        <v>-0.2469158836438173</v>
+        <v>0.002235506130308234</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.003159665376279541</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C434">
-        <v>266.9320324788007</v>
+        <v>0.02883572125303147</v>
       </c>
       <c r="D434">
-        <v>-0.2239654698747972</v>
+        <v>0.02040166408663022</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.02883572125303147</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C435">
-        <v>267.662988718671</v>
+        <v>-0.01158483256337828</v>
       </c>
       <c r="D435">
-        <v>-0.2293635740024834</v>
+        <v>-0.008196426244516138</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.01158483256337828</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C436">
-        <v>268.3939449585414</v>
+        <v>-0.03598813431417192</v>
       </c>
       <c r="D436">
-        <v>-0.2095950451621254</v>
+        <v>-0.02546209338547682</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.03598813431417192</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C437">
-        <v>269.1249011984117</v>
+        <v>0.0190360652890762</v>
       </c>
       <c r="D437">
-        <v>-0.2370777838235187</v>
+        <v>0.0134682745110135</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.0190360652890762</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C438">
-        <v>269.8558574382821</v>
+        <v>-0.00395829345801868</v>
       </c>
       <c r="D438">
-        <v>-0.2233165677984842</v>
+        <v>-0.00280054633550438</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.00395829345801868</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C439">
-        <v>270.5868136781525</v>
+        <v>-0.005715542741468127</v>
       </c>
       <c r="D439">
-        <v>-0.2209493753615584</v>
+        <v>-0.004043824049379433</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>-0.005715542741468127</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C440">
-        <v>271.3177699180228</v>
+        <v>-0.01690200125675556</v>
       </c>
       <c r="D440">
-        <v>-0.2406408729516759</v>
+        <v>-0.01195839524894413</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.01690200125675556</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C441">
-        <v>272.0487261578932</v>
+        <v>-0.01812946333230858</v>
       </c>
       <c r="D441">
-        <v>-0.2434374605550039</v>
+        <v>-0.01282684132403157</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.01812946333230858</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C442">
-        <v>272.7796823977635</v>
+        <v>-0.01758056135942887</v>
       </c>
       <c r="D442">
-        <v>-0.2505587080665112</v>
+        <v>-0.01243848572963133</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.01758056135942887</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C443">
-        <v>273.5106386376339</v>
+        <v>0.02153025987313484</v>
       </c>
       <c r="D443">
-        <v>-0.2648813258037371</v>
+        <v>0.01523295102540126</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.02153025987313484</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C444">
-        <v>274.2415948775042</v>
+        <v>-0.006313108483548824</v>
       </c>
       <c r="D444">
-        <v>-0.2742364282602914</v>
+        <v>-0.004466609920855655</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>-0.006313108483548824</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C445">
-        <v>274.9725511173746</v>
+        <v>-0.005443139747412395</v>
       </c>
       <c r="D445">
-        <v>-0.2661414187784958</v>
+        <v>-0.003851095234582297</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-0.005443139747412395</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C446">
-        <v>275.7035073572449</v>
+        <v>-0.006634513146591914</v>
       </c>
       <c r="D446">
-        <v>-0.2891495879091209</v>
+        <v>-0.00469400808141293</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.006634513146591914</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C447">
-        <v>276.4344635971153</v>
+        <v>0.0158980305479508</v>
       </c>
       <c r="D447">
-        <v>-0.2845064170976675</v>
+        <v>0.01124807234860407</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.0158980305479508</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C448">
-        <v>277.1654198369856</v>
+        <v>-0.008144557916819117</v>
       </c>
       <c r="D448">
-        <v>-0.2772588530339731</v>
+        <v>-0.005762385247623377</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>-0.008144557916819117</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C449">
-        <v>277.896376076856</v>
+        <v>0.001257334616606265</v>
       </c>
       <c r="D449">
-        <v>-0.249327667051645</v>
+        <v>0.0008895813032523426</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.001257334616606265</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C450">
-        <v>278.6273323167263</v>
+        <v>0.04434249186164863</v>
       </c>
       <c r="D450">
-        <v>-0.2421355551575836</v>
+        <v>0.03137291471876687</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.04434249186164863</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C451">
-        <v>279.3582885565967</v>
+        <v>0.02947872763920412</v>
       </c>
       <c r="D451">
-        <v>-0.2359963425505596</v>
+        <v>0.02085659983043005</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.02947872763920412</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C452">
-        <v>280.089244796467</v>
+        <v>0.01483510980442926</v>
       </c>
       <c r="D452">
-        <v>-0.2087086914362015</v>
+        <v>0.0104960414987512</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01483510980442926</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C453">
-        <v>280.8202010363374</v>
+        <v>-0.0008947974520072677</v>
       </c>
       <c r="D453">
-        <v>-0.2173483204846247</v>
+        <v>-0.0006330813396771108</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>-0.0008947974520072677</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C454">
-        <v>281.5511572762077</v>
+        <v>0.01611096626060426</v>
       </c>
       <c r="D454">
-        <v>-0.2070603675144161</v>
+        <v>0.01139872725483939</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.01611096626060426</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C455">
-        <v>282.2821135160781</v>
+        <v>0.03438592437533838</v>
       </c>
       <c r="D455">
-        <v>-0.2157257283894771</v>
+        <v>0.02432850811179806</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.03438592437533838</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C456">
-        <v>283.0130697559484</v>
+        <v>-0.008087819338376434</v>
       </c>
       <c r="D456">
-        <v>-0.2078839267117863</v>
+        <v>-0.005722241933433903</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-0.008087819338376434</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C457">
-        <v>283.7440259958188</v>
+        <v>0.02961860054278542</v>
       </c>
       <c r="D457">
-        <v>-0.1952767575657599</v>
+        <v>0.02095556180778608</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.02961860054278542</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C458">
-        <v>284.4749822356891</v>
+        <v>-0.04117657235938399</v>
       </c>
       <c r="D458">
-        <v>-0.1871448902816737</v>
+        <v>-0.02913298370945582</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.04117657235938399</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C459">
-        <v>285.2059384755595</v>
+        <v>0.02061802189328166</v>
       </c>
       <c r="D459">
-        <v>-0.2000834111594426</v>
+        <v>0.01458753027560558</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.02061802189328166</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C460">
-        <v>285.9368947154298</v>
+        <v>0.003546694231189917</v>
       </c>
       <c r="D460">
-        <v>-0.190918632943135</v>
+        <v>0.002509334297130471</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.003546694231189917</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C461">
-        <v>286.1813391598743</v>
+        <v>-0.03494867601635754</v>
       </c>
       <c r="D461">
-        <v>-0.168131706006914</v>
+        <v>-0.02113443450291742</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.03494867601635754</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C462">
-        <v>286.4257836043188</v>
+        <v>-0.004963412947785351</v>
       </c>
       <c r="D462">
-        <v>-0.1574738512417289</v>
+        <v>-0.003001513585430372</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.004963412947785351</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C463">
-        <v>287.1567398441891</v>
+        <v>-0.0106695539720203</v>
       </c>
       <c r="D463">
-        <v>-0.1335791444257269</v>
+        <v>-0.007548854220819781</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>-0.0106695539720203</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C464">
-        <v>287.8876960840595</v>
+        <v>-0.02145915343077309</v>
       </c>
       <c r="D464">
-        <v>-0.1449816623772263</v>
+        <v>-0.01518264225251745</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.02145915343077309</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C465">
-        <v>288.6186523239298</v>
+        <v>-0.01401647259313687</v>
       </c>
       <c r="D465">
-        <v>-0.1580720962311018</v>
+        <v>-0.00991684456287268</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.01401647259313687</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C466">
-        <v>289.3496085638002</v>
+        <v>0.01212851265602932</v>
       </c>
       <c r="D466">
-        <v>-0.1437455966258731</v>
+        <v>0.008581087287793788</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01212851265602932</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C467">
-        <v>290.0805648036705</v>
+        <v>-0.03447245752094563</v>
       </c>
       <c r="D467">
-        <v>-0.1470478196710232</v>
+        <v>-0.02438973148656809</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.03447245752094563</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C468">
-        <v>290.8115210435409</v>
+        <v>0.006956725137563069</v>
       </c>
       <c r="D468">
-        <v>-0.139070109812846</v>
+        <v>0.004921977437434734</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.006956725137563069</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C469">
-        <v>291.5424772834112</v>
+        <v>0.01085881031635338</v>
       </c>
       <c r="D469">
-        <v>-0.1253163769527972</v>
+        <v>0.007682755652639919</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.01085881031635338</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C470">
-        <v>292.2734335232816</v>
+        <v>0.041848467682021</v>
       </c>
       <c r="D470">
-        <v>-0.103923516692541</v>
+        <v>0.02960835876782643</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.041848467682021</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C471">
-        <v>293.0043897631519</v>
+        <v>0.01077572797497872</v>
       </c>
       <c r="D471">
-        <v>-0.1030861776069365</v>
+        <v>0.007623973768691779</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.01077572797497872</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C472">
-        <v>293.7353460030223</v>
+        <v>0.009198200196033568</v>
       </c>
       <c r="D472">
-        <v>-0.1139542344402005</v>
+        <v>0.006507851458070421</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.009198200196033568</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C473">
-        <v>294.4663022428927</v>
+        <v>0.04088427847281473</v>
       </c>
       <c r="D473">
-        <v>-0.09931235095481561</v>
+        <v>0.02892618181828639</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.04088427847281473</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C474">
-        <v>294.7107466873371</v>
+        <v>-0.01533370405846579</v>
       </c>
       <c r="D474">
-        <v>-0.09887582524587138</v>
+        <v>-0.009272716481708363</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.01533370405846579</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C475">
-        <v>294.9551911317816</v>
+        <v>0.01825916660639315</v>
       </c>
       <c r="D475">
-        <v>-0.09787731359140882</v>
+        <v>0.01104182489030646</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.01825916660639315</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C476">
-        <v>295.1996355762261</v>
+        <v>-0.01537937317369487</v>
       </c>
       <c r="D476">
-        <v>-0.1049612724645495</v>
+        <v>-0.009300333863384375</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.01537937317369487</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C477">
-        <v>295.4440800206705</v>
+        <v>0.01391771169073941</v>
       </c>
       <c r="D477">
-        <v>-0.1211128569002168</v>
+        <v>0.00841642659140358</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.01391771169073941</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C478">
-        <v>295.688524465115</v>
+        <v>0.02237533574841066</v>
       </c>
       <c r="D478">
-        <v>-0.1158491322392662</v>
+        <v>0.01353098662834146</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.02237533574841066</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C479">
-        <v>295.9329689095595</v>
+        <v>0.01443252316482901</v>
       </c>
       <c r="D479">
-        <v>-0.1453006176173445</v>
+        <v>0.008727747380076796</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.01443252316482901</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C480">
-        <v>296.1774133540039</v>
+        <v>-0.02296342226987136</v>
       </c>
       <c r="D480">
-        <v>-0.1452176052133562</v>
+        <v>-0.01388661887215071</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.02296342226987136</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C481">
-        <v>296.4218577984484</v>
+        <v>0.01626574429789684</v>
       </c>
       <c r="D481">
-        <v>-0.1514245566365223</v>
+        <v>0.009836347086344699</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.01626574429789684</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C482">
-        <v>297.1528140383188</v>
+        <v>0.03414097690181706</v>
       </c>
       <c r="D482">
-        <v>-0.1605770849041147</v>
+        <v>0.02415520445034983</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.03414097690181706</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C483">
-        <v>297.8837702781891</v>
+        <v>0.01596834774515887</v>
       </c>
       <c r="D483">
-        <v>-0.1439612205937302</v>
+        <v>0.01129782271983162</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.01596834774515887</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C484">
-        <v>298.6147265180595</v>
+        <v>0.0358007306454331</v>
       </c>
       <c r="D484">
-        <v>-0.1422880186956993</v>
+        <v>0.02532950274678039</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.0358007306454331</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C485">
-        <v>298.8569327530714</v>
+        <v>-0.02024610679890149</v>
       </c>
       <c r="D485">
-        <v>-0.1250118569760502</v>
+        <v>-0.01223333633928686</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.02024610679890149</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C486">
-        <v>299.0991389880834</v>
+        <v>-0.02324314006580153</v>
       </c>
       <c r="D486">
-        <v>-0.1334876320262469</v>
+        <v>-0.01404423837285754</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.02324314006580153</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C487">
-        <v>299.3413452230953</v>
+        <v>0.02543787629150263</v>
       </c>
       <c r="D487">
-        <v>-0.1388647554747342</v>
+        <v>0.01537036722773819</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.02543787629150263</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C488">
-        <v>299.5835514581073</v>
+        <v>-0.005863368137658753</v>
       </c>
       <c r="D488">
-        <v>-0.1450790233924487</v>
+        <v>-0.003542831973647861</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.005863368137658753</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C489">
-        <v>299.8257576931193</v>
+        <v>0.01416507884366602</v>
       </c>
       <c r="D489">
-        <v>-0.1275907647444028</v>
+        <v>0.008558987438339761</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.01416507884366602</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C490">
-        <v>300.0679639281312</v>
+        <v>0.02442088190981462</v>
       </c>
       <c r="D490">
-        <v>-0.143853145413061</v>
+        <v>0.014755867143849</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.02442088190981462</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C491">
-        <v>300.3101701631432</v>
+        <v>0.03798477980086545</v>
       </c>
       <c r="D491">
-        <v>-0.1456025099407936</v>
+        <v>0.02295160208791102</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.03798477980086545</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C492">
-        <v>300.5523763981552</v>
+        <v>0.001486764294180709</v>
       </c>
       <c r="D492">
-        <v>-0.1426654720046716</v>
+        <v>0.0008983498827014927</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.001486764294180709</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C493">
-        <v>300.7945826331671</v>
+        <v>-0.01929712720284371</v>
       </c>
       <c r="D493">
-        <v>-0.1518254411731035</v>
+        <v>-0.01165993293422702</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>-0.01929712720284371</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C494">
-        <v>301.0367888681791</v>
+        <v>0.02599786626454659</v>
       </c>
       <c r="D494">
-        <v>-0.1551511175674274</v>
+        <v>0.01570873083289543</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.02599786626454659</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C495">
-        <v>301.2789951031911</v>
+        <v>0.0007750872361125261</v>
       </c>
       <c r="D495">
-        <v>-0.161482634687234</v>
+        <v>0.0004683321561934687</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.0007750872361125261</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C496">
-        <v>301.521201338203</v>
+        <v>0.001772939422870046</v>
       </c>
       <c r="D496">
-        <v>-0.1608356880692826</v>
+        <v>0.00107126592211433</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.001772939422870046</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C497">
-        <v>301.763407573215</v>
+        <v>-0.01257815059048184</v>
       </c>
       <c r="D497">
-        <v>-0.1416773560273363</v>
+        <v>-0.007600115332193781</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>-0.01257815059048184</v>
+        <v>0.2422062350119904</v>
       </c>
       <c r="C498">
-        <v>302.0056138082269</v>
+        <v>-0.02867846425209919</v>
       </c>
       <c r="D498">
-        <v>-0.1475918893250776</v>
+        <v>-0.01732843268954699</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.02867846425209919</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C499">
-        <v>302.2500582526714</v>
+        <v>0.009342113618986403</v>
       </c>
       <c r="D499">
-        <v>-0.1536141306146477</v>
+        <v>0.005649435426591557</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.009342113618986403</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C500">
-        <v>302.7870405011921</v>
+        <v>-0.04793279284811813</v>
       </c>
       <c r="D500">
-        <v>-0.1539980456607774</v>
+        <v>-0.03201906342774426</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.04793279284811813</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C501">
-        <v>303.3240227497128</v>
+        <v>0.0001351040979127305</v>
       </c>
       <c r="D501">
-        <v>-0.1720139143346228</v>
+        <v>9.024941847480365e-05</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.0001351040979127305</v>
+        <v>0.5369822485207101</v>
       </c>
       <c r="C502">
-        <v>303.8610049982335</v>
+        <v>-0.01010191890037593</v>
       </c>
       <c r="D502">
-        <v>-0.1622412848530853</v>
+        <v>-0.00674807293282441</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.01010191890037593</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C503">
-        <v>304.5919612381039</v>
+        <v>-0.01371296169297853</v>
       </c>
       <c r="D503">
-        <v>-0.1717133858039444</v>
+        <v>-0.009702106482374335</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.01371296169297853</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C504">
-        <v>305.3229174779742</v>
+        <v>0.02489505676708159</v>
+      </c>
+      <c r="D504">
+        <v>0.01761359048808928</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.02489505676708159</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C505">
-        <v>306.0538737178446</v>
+        <v>0.002506908786456208</v>
+      </c>
+      <c r="D505">
+        <v>0.001773671985115494</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.002506908786456208</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C506">
-        <v>306.7848299577149</v>
+        <v>0.02588436079483092</v>
+      </c>
+      <c r="D506">
+        <v>0.01831353651255608</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.02588436079483092</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C507">
-        <v>307.5157861975853</v>
+        <v>-0.01269900241588928</v>
+      </c>
+      <c r="D507">
+        <v>-0.008984716534428347</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.01269900241588928</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C508">
-        <v>308.2467424374556</v>
+        <v>-0.008056384608896572</v>
+      </c>
+      <c r="D508">
+        <v>-0.005700001435758304</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.008056384608896572</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C509">
-        <v>308.977698677326</v>
+        <v>-0.00931065334234038</v>
+      </c>
+      <c r="D509">
+        <v>-0.006587413585069242</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.00931065334234038</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C510">
-        <v>309.7086549171963</v>
+        <v>0.02620213933309579</v>
+      </c>
+      <c r="D510">
+        <v>0.01853836914062633</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.02620213933309579</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C511">
-        <v>310.4396111570667</v>
+        <v>-0.02436544270893659</v>
+      </c>
+      <c r="D511">
+        <v>-0.01723888135510044</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>-0.02436544270893659</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C512">
-        <v>311.170567396937</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.002621020996000922</v>
+      </c>
+      <c r="D512">
+        <v>-0.001854407921868582</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.002621020996000922</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C513">
-        <v>311.9015236368074</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.004400476844357293</v>
+      </c>
+      <c r="D513">
+        <v>0.003113397081757887</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.004400476844357293</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C514">
-        <v>312.6324798766777</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>-0.01372411017405284</v>
+      </c>
+      <c r="D514">
+        <v>-0.009709994184019055</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-0.01372411017405284</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C515">
-        <v>313.3634361165481</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>-0.004982762321541934</v>
+      </c>
+      <c r="D515">
+        <v>-0.003525371958467285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>-0.004982762321541934</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C516">
-        <v>314.0943923564184</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>-0.009486324344910813</v>
+      </c>
+      <c r="D516">
+        <v>-0.006711703203239507</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>-0.009486324344910813</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C517">
-        <v>314.8253485962888</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.0009693009330309366</v>
+      </c>
+      <c r="D517">
+        <v>0.0006857935635119741</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.0009693009330309366</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C518">
-        <v>315.5563048361591</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.02870436077458649</v>
+      </c>
+      <c r="D518">
+        <v>0.02030872476557156</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.02870436077458649</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C519">
-        <v>316.2872610760295</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>-0.008861569849607065</v>
+      </c>
+      <c r="D519">
+        <v>-0.006269680919907188</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>-0.008861569849607065</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C520">
-        <v>317.0182173158998</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>-0.009022945539776117</v>
+      </c>
+      <c r="D520">
+        <v>-0.0063838564105664</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>-0.009022945539776117</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C521">
-        <v>317.7491735557702</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.0005752085289456588</v>
+      </c>
+      <c r="D521">
+        <v>-0.0004069678397962851</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.0005752085289456588</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C522">
-        <v>318.4801297956406</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.02699264178892946</v>
+      </c>
+      <c r="D522">
+        <v>-0.01909766035522979</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.02699264178892946</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C523">
-        <v>319.2110860355109</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01464204095326416</v>
+      </c>
+      <c r="D523">
+        <v>0.01035944266661178</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01464204095326416</v>
+        <v>0.7309562398703403</v>
       </c>
       <c r="C524">
-        <v>319.9420422753813</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.01419176796766397</v>
       </c>
-      <c r="C525">
-        <v>320.6729985152516</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>321.403954755122</v>
+      <c r="D524">
+        <v>-0.01004086841910502</v>
       </c>
     </row>
   </sheetData>
